--- a/2.5D_Thermal_lidless.xlsx
+++ b/2.5D_Thermal_lidless.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programs\ANSYS\Parametric projects\PythonProject\results data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uottawa-my.sharepoint.com/personal/mrafiee_uottawa_ca/Documents/1-Moh/Teaching &amp; Workshops/Electronic pakcaging and manufacturing/Projects/2025 Projects/teams/2.5D/updated data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DA1224-6585-4A94-886D-5AF60FACFF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{40DA1224-6585-4A94-886D-5AF60FACFF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75F80941-AF75-4FB5-B02A-AE43DDC4324D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,12 +562,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -922,7 +918,7 @@
   <dimension ref="A1:M501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,29 +934,28 @@
     <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1019,8 +1014,8 @@
       <c r="L2">
         <v>175</v>
       </c>
-      <c r="M2" s="2">
-        <v>1.2755462646484006</v>
+      <c r="M2">
+        <v>6.309083557128881</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1060,8 +1055,8 @@
       <c r="L3">
         <v>40</v>
       </c>
-      <c r="M3" s="2">
-        <v>8.9276580810546022</v>
+      <c r="M3">
+        <v>1.1988143920898409</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1101,8 +1096,8 @@
       <c r="L4">
         <v>175</v>
       </c>
-      <c r="M4" s="2">
-        <v>1.3943389892578011</v>
+      <c r="M4">
+        <v>2.5439407348632814</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1142,8 +1137,8 @@
       <c r="L5">
         <v>40</v>
       </c>
-      <c r="M5" s="2">
-        <v>0.68185729980467902</v>
+      <c r="M5">
+        <v>2.5939682006835598</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1183,8 +1178,8 @@
       <c r="L6">
         <v>40</v>
       </c>
-      <c r="M6" s="2">
-        <v>0.6083206176757614</v>
+      <c r="M6">
+        <v>2.223776245117159</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1224,8 +1219,8 @@
       <c r="L7">
         <v>40</v>
       </c>
-      <c r="M7" s="2">
-        <v>0.90690612792966852</v>
+      <c r="M7">
+        <v>4.179258728027321</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1265,8 +1260,8 @@
       <c r="L8">
         <v>175</v>
       </c>
-      <c r="M8" s="2">
-        <v>3.6535995483398409</v>
+      <c r="M8">
+        <v>4.0425537109374803</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1306,8 +1301,8 @@
       <c r="L9">
         <v>40</v>
       </c>
-      <c r="M9" s="2">
-        <v>13.115669250488196</v>
+      <c r="M9">
+        <v>0.58171997070311932</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1347,8 +1342,8 @@
       <c r="L10">
         <v>40</v>
       </c>
-      <c r="M10" s="2">
-        <v>4.1831314086914002</v>
+      <c r="M10">
+        <v>5.2386871337890399</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1388,8 +1383,8 @@
       <c r="L11">
         <v>175</v>
       </c>
-      <c r="M11" s="2">
-        <v>2.4108963012695197</v>
+      <c r="M11">
+        <v>4.0357513427734002</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1429,8 +1424,8 @@
       <c r="L12">
         <v>175</v>
       </c>
-      <c r="M12" s="2">
-        <v>27.259040832519403</v>
+      <c r="M12">
+        <v>1.0479660034179603</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1470,8 +1465,8 @@
       <c r="L13">
         <v>175</v>
       </c>
-      <c r="M13" s="2">
-        <v>6.205340067545535</v>
+      <c r="M13">
+        <v>3.1302261352538805</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1511,8 +1506,8 @@
       <c r="L14">
         <v>40</v>
       </c>
-      <c r="M14" s="2">
-        <v>6.6520065307617191</v>
+      <c r="M14">
+        <v>6.9651535034179606</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1552,8 +1547,8 @@
       <c r="L15">
         <v>40</v>
       </c>
-      <c r="M15" s="2">
-        <v>6.1585489908853974</v>
+      <c r="M15">
+        <v>1.6329895019531193</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1593,8 +1588,8 @@
       <c r="L16">
         <v>175</v>
       </c>
-      <c r="M16" s="2">
-        <v>6.3532104492185937</v>
+      <c r="M16">
+        <v>1.6704559326171591</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1634,8 +1629,8 @@
       <c r="L17">
         <v>175</v>
       </c>
-      <c r="M17" s="2">
-        <v>2.0260070800781191</v>
+      <c r="M17">
+        <v>6.308917236328119</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1675,8 +1670,8 @@
       <c r="L18">
         <v>175</v>
       </c>
-      <c r="M18" s="2">
-        <v>14.874201456705729</v>
+      <c r="M18">
+        <v>5.3475769042968411</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1716,8 +1711,8 @@
       <c r="L19">
         <v>40</v>
       </c>
-      <c r="M19" s="2">
-        <v>10.583895365397135</v>
+      <c r="M19">
+        <v>2.2340576171874802</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1757,8 +1752,8 @@
       <c r="L20">
         <v>175</v>
       </c>
-      <c r="M20" s="2">
-        <v>4.0196533203124805</v>
+      <c r="M20">
+        <v>8.6295318603515625</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1798,8 +1793,8 @@
       <c r="L21">
         <v>40</v>
       </c>
-      <c r="M21" s="2">
-        <v>2.1266276041666665</v>
+      <c r="M21">
+        <v>1.3334762573241989</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1839,8 +1834,8 @@
       <c r="L22">
         <v>40</v>
       </c>
-      <c r="M22" s="2">
-        <v>6.0983683268228646</v>
+      <c r="M22">
+        <v>3.8133163452148411</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1880,8 +1875,8 @@
       <c r="L23">
         <v>40</v>
       </c>
-      <c r="M23" s="2">
-        <v>5.1841308593750002</v>
+      <c r="M23">
+        <v>2.72330780029296</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1921,8 +1916,8 @@
       <c r="L24">
         <v>175</v>
       </c>
-      <c r="M24" s="2">
-        <v>19.066009521484204</v>
+      <c r="M24">
+        <v>1.0470809936523211</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1962,8 +1957,8 @@
       <c r="L25">
         <v>40</v>
       </c>
-      <c r="M25" s="2">
-        <v>2.6249038696288807</v>
+      <c r="M25">
+        <v>6.9672500610351191</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2003,8 +1998,8 @@
       <c r="L26">
         <v>175</v>
       </c>
-      <c r="M26" s="2">
-        <v>4.0202153523762689</v>
+      <c r="M26">
+        <v>1.8254333496093609</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2044,8 +2039,8 @@
       <c r="L27">
         <v>40</v>
       </c>
-      <c r="M27" s="2">
-        <v>17.977210998535</v>
+      <c r="M27">
+        <v>0.5821868896484006</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2085,8 +2080,8 @@
       <c r="L28">
         <v>40</v>
       </c>
-      <c r="M28" s="2">
-        <v>27.274658203125</v>
+      <c r="M28">
+        <v>0.68173370361328123</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2126,8 +2121,8 @@
       <c r="L29">
         <v>40</v>
       </c>
-      <c r="M29" s="2">
-        <v>6.0363067626952809</v>
+      <c r="M29">
+        <v>2.7234588623046792</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2167,8 +2162,8 @@
       <c r="L30">
         <v>40</v>
       </c>
-      <c r="M30" s="2">
-        <v>21.874198913574205</v>
+      <c r="M30">
+        <v>0.54357757568355969</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2208,8 +2203,8 @@
       <c r="L31">
         <v>40</v>
       </c>
-      <c r="M31" s="2">
-        <v>5.451118469238196</v>
+      <c r="M31">
+        <v>1.1337127685546791</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2249,8 +2244,8 @@
       <c r="L32">
         <v>40</v>
       </c>
-      <c r="M32" s="2">
-        <v>1.4573287963866666</v>
+      <c r="M32">
+        <v>2.7846374511718408</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2290,8 +2285,8 @@
       <c r="L33">
         <v>40</v>
       </c>
-      <c r="M33" s="2">
-        <v>2.0262725830078012</v>
+      <c r="M33">
+        <v>3.041197204589841</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2331,8 +2326,8 @@
       <c r="L34">
         <v>40</v>
       </c>
-      <c r="M34" s="2">
-        <v>14.384368896484338</v>
+      <c r="M34">
+        <v>5.3651901245117184</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2372,8 +2367,8 @@
       <c r="L35">
         <v>40</v>
       </c>
-      <c r="M35" s="2">
-        <v>5.0699081420898011</v>
+      <c r="M35">
+        <v>3.5926422119140398</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2413,8 +2408,8 @@
       <c r="L36">
         <v>175</v>
       </c>
-      <c r="M36" s="2">
-        <v>20.098800659179602</v>
+      <c r="M36">
+        <v>1.7846908569335596</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2454,8 +2449,8 @@
       <c r="L37">
         <v>40</v>
       </c>
-      <c r="M37" s="2">
-        <v>13.608909606933594</v>
+      <c r="M37">
+        <v>1.3931060791015597</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2495,8 +2490,8 @@
       <c r="L38">
         <v>40</v>
       </c>
-      <c r="M38" s="2">
-        <v>5.073125203450469</v>
+      <c r="M38">
+        <v>1.1399261474609204</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2536,8 +2531,8 @@
       <c r="L39">
         <v>175</v>
       </c>
-      <c r="M39" s="2">
-        <v>5.7413940429685937</v>
+      <c r="M39">
+        <v>1.3323043823241989</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2577,8 +2572,8 @@
       <c r="L40">
         <v>40</v>
       </c>
-      <c r="M40" s="2">
-        <v>1.3339309692382813</v>
+      <c r="M40">
+        <v>8.3616241455078004</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2618,8 +2613,8 @@
       <c r="L41">
         <v>40</v>
       </c>
-      <c r="M41" s="2">
-        <v>4.3727035522459943</v>
+      <c r="M41">
+        <v>1.271096801757801</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2659,8 +2654,8 @@
       <c r="L42">
         <v>175</v>
       </c>
-      <c r="M42" s="2">
-        <v>2.1169560750325331</v>
+      <c r="M42">
+        <v>1.528952026367159</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2700,8 +2695,8 @@
       <c r="L43">
         <v>175</v>
       </c>
-      <c r="M43" s="2">
-        <v>4.0033325195312388</v>
+      <c r="M43">
+        <v>6.9636779785155998</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2741,8 +2736,8 @@
       <c r="L44">
         <v>175</v>
       </c>
-      <c r="M44" s="2">
-        <v>6.6556854248046688</v>
+      <c r="M44">
+        <v>4.1865310668945197</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2782,8 +2777,8 @@
       <c r="L45">
         <v>175</v>
       </c>
-      <c r="M45" s="2">
-        <v>13.113365173339801</v>
+      <c r="M45">
+        <v>1.2685043334960795</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2823,8 +2818,8 @@
       <c r="L46">
         <v>40</v>
       </c>
-      <c r="M46" s="2">
-        <v>2.0451278686523211</v>
+      <c r="M46">
+        <v>8.6397583007812386</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2864,8 +2859,8 @@
       <c r="L47">
         <v>40</v>
       </c>
-      <c r="M47" s="2">
-        <v>17.969512939452997</v>
+      <c r="M47">
+        <v>0.60854492187499998</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2905,8 +2900,8 @@
       <c r="L48">
         <v>175</v>
       </c>
-      <c r="M48" s="2">
-        <v>3.4082366943359204</v>
+      <c r="M48">
+        <v>2.7216812133788806</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2946,8 +2941,8 @@
       <c r="L49">
         <v>40</v>
       </c>
-      <c r="M49" s="2">
-        <v>4.5363922119140012</v>
+      <c r="M49">
+        <v>2.2353378295898407</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2987,8 +2982,8 @@
       <c r="L50">
         <v>40</v>
       </c>
-      <c r="M50" s="2">
-        <v>10.526173909505198</v>
+      <c r="M50">
+        <v>1.8253433227538807</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3028,8 +3023,8 @@
       <c r="L51">
         <v>40</v>
       </c>
-      <c r="M51" s="2">
-        <v>1.20812988281248</v>
+      <c r="M51">
+        <v>2.9012283325195201</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3069,8 +3064,8 @@
       <c r="L52">
         <v>40</v>
       </c>
-      <c r="M52" s="2">
-        <v>0.74511566162107956</v>
+      <c r="M52">
+        <v>6.9677017211914007</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3110,8 +3105,8 @@
       <c r="L53">
         <v>40</v>
       </c>
-      <c r="M53" s="2">
-        <v>2.4377105712890397</v>
+      <c r="M53">
+        <v>4.6526306152343606</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3151,8 +3146,8 @@
       <c r="L54">
         <v>175</v>
       </c>
-      <c r="M54" s="2">
-        <v>11.173202514648395</v>
+      <c r="M54">
+        <v>1.1346496582031194</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3192,8 +3187,8 @@
       <c r="L55">
         <v>40</v>
       </c>
-      <c r="M55" s="2">
-        <v>4.0403411865234009</v>
+      <c r="M55">
+        <v>6.6581344604491992</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3233,8 +3228,8 @@
       <c r="L56">
         <v>40</v>
       </c>
-      <c r="M56" s="2">
-        <v>1.2178863525390398</v>
+      <c r="M56">
+        <v>3.2273529052734005</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3274,8 +3269,8 @@
       <c r="L57">
         <v>40</v>
       </c>
-      <c r="M57" s="2">
-        <v>1.393505859375</v>
+      <c r="M57">
+        <v>6.0466659545898409</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3315,8 +3310,8 @@
       <c r="L58">
         <v>175</v>
       </c>
-      <c r="M58" s="2">
-        <v>0.68160552978511935</v>
+      <c r="M58">
+        <v>8.6492553710937212</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3356,8 +3351,8 @@
       <c r="L59">
         <v>175</v>
       </c>
-      <c r="M59" s="2">
-        <v>1.2317479451497348</v>
+      <c r="M59">
+        <v>4.1810058593750004</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3397,8 +3392,8 @@
       <c r="L60">
         <v>40</v>
       </c>
-      <c r="M60" s="2">
-        <v>30.193084716796804</v>
+      <c r="M60">
+        <v>0.58161163330076138</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3438,8 +3433,8 @@
       <c r="L61">
         <v>175</v>
       </c>
-      <c r="M61" s="2">
-        <v>8.6381927490234371</v>
+      <c r="M61">
+        <v>8.3603179931640401</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3479,8 +3474,8 @@
       <c r="L62">
         <v>40</v>
       </c>
-      <c r="M62" s="2">
-        <v>4.0425445556640396</v>
+      <c r="M62">
+        <v>6.9614929199218407</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3520,8 +3515,8 @@
       <c r="L63">
         <v>40</v>
       </c>
-      <c r="M63" s="2">
-        <v>6.2040761311848671</v>
+      <c r="M63">
+        <v>3.8167892456054404</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3561,8 +3556,8 @@
       <c r="L64">
         <v>175</v>
       </c>
-      <c r="M64" s="2">
-        <v>6.6765060424803977</v>
+      <c r="M64">
+        <v>1.3940444946288806</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3602,8 +3597,8 @@
       <c r="L65">
         <v>40</v>
       </c>
-      <c r="M65" s="2">
-        <v>1.0901535034179601</v>
+      <c r="M65">
+        <v>2.9111251831054403</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3643,8 +3638,8 @@
       <c r="L66">
         <v>175</v>
       </c>
-      <c r="M66" s="2">
-        <v>6.6570434570311932</v>
+      <c r="M66">
+        <v>0.68076324462888071</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3684,8 +3679,8 @@
       <c r="L67">
         <v>40</v>
       </c>
-      <c r="M67" s="2">
-        <v>4.0423507690427982</v>
+      <c r="M67">
+        <v>0.58051452636715906</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3725,8 +3720,8 @@
       <c r="L68">
         <v>175</v>
       </c>
-      <c r="M68" s="2">
-        <v>3.3770294189451988</v>
+      <c r="M68">
+        <v>1.6723281860351193</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3766,8 +3761,8 @@
       <c r="L69">
         <v>40</v>
       </c>
-      <c r="M69" s="2">
-        <v>5.6744232177733949</v>
+      <c r="M69">
+        <v>1.7858352661132813</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3807,8 +3802,8 @@
       <c r="L70">
         <v>40</v>
       </c>
-      <c r="M70" s="2">
-        <v>6.9721628824869315</v>
+      <c r="M70">
+        <v>4.0006713867187189</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3848,8 +3843,8 @@
       <c r="L71">
         <v>175</v>
       </c>
-      <c r="M71" s="2">
-        <v>9.1394577026366051</v>
+      <c r="M71">
+        <v>1.1483139038085597</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3889,8 +3884,8 @@
       <c r="L72">
         <v>175</v>
       </c>
-      <c r="M72" s="2">
-        <v>6.3156636555989349</v>
+      <c r="M72">
+        <v>1.9319763183593608</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3930,8 +3925,8 @@
       <c r="L73">
         <v>175</v>
       </c>
-      <c r="M73" s="2">
-        <v>17.972419738769403</v>
+      <c r="M73">
+        <v>0.38001708984371874</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3971,8 +3966,8 @@
       <c r="L74">
         <v>175</v>
       </c>
-      <c r="M74" s="2">
-        <v>13.924789428710938</v>
+      <c r="M74">
+        <v>3.9908142089843608</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -4012,8 +4007,8 @@
       <c r="L75">
         <v>40</v>
       </c>
-      <c r="M75" s="2">
-        <v>7.8181355794270644</v>
+      <c r="M75">
+        <v>1.5287094116210795</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4053,8 +4048,8 @@
       <c r="L76">
         <v>40</v>
       </c>
-      <c r="M76" s="2">
-        <v>7.817301432291667</v>
+      <c r="M76">
+        <v>1.5296905517578012</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4094,8 +4089,8 @@
       <c r="L77">
         <v>40</v>
       </c>
-      <c r="M77" s="2">
-        <v>3.4097595214842045</v>
+      <c r="M77">
+        <v>0.5445892333984006</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4135,8 +4130,8 @@
       <c r="L78">
         <v>175</v>
       </c>
-      <c r="M78" s="2">
-        <v>3.3687667846677982</v>
+      <c r="M78">
+        <v>1.6725524902343607</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4176,8 +4171,8 @@
       <c r="L79">
         <v>175</v>
       </c>
-      <c r="M79" s="2">
-        <v>0.80446166992184087</v>
+      <c r="M79">
+        <v>1.8987564086914006</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4217,8 +4212,8 @@
       <c r="L80">
         <v>40</v>
       </c>
-      <c r="M80" s="2">
-        <v>8.6493250528971348</v>
+      <c r="M80">
+        <v>1.5562042236328011</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4258,8 +4253,8 @@
       <c r="L81">
         <v>175</v>
       </c>
-      <c r="M81" s="2">
-        <v>2.2362365722655992</v>
+      <c r="M81">
+        <v>5.443928527832</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4299,8 +4294,8 @@
       <c r="L82">
         <v>175</v>
       </c>
-      <c r="M82" s="2">
-        <v>1.1353429158528645</v>
+      <c r="M82">
+        <v>3.1429183959960794</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4340,8 +4335,8 @@
       <c r="L83">
         <v>175</v>
       </c>
-      <c r="M83" s="2">
-        <v>1.2311070760090672</v>
+      <c r="M83">
+        <v>2.0407760620117186</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4381,8 +4376,8 @@
       <c r="L84">
         <v>175</v>
       </c>
-      <c r="M84" s="2">
-        <v>6.3072814941405966</v>
+      <c r="M84">
+        <v>0.9874191284179602</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4422,8 +4417,8 @@
       <c r="L85">
         <v>40</v>
       </c>
-      <c r="M85" s="2">
-        <v>2.4226013183593609</v>
+      <c r="M85">
+        <v>3.4093383789062388</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4463,8 +4458,8 @@
       <c r="L86">
         <v>40</v>
       </c>
-      <c r="M86" s="2">
-        <v>19.94669342041</v>
+      <c r="M86">
+        <v>1.1487609863281194</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4504,8 +4499,8 @@
       <c r="L87">
         <v>40</v>
       </c>
-      <c r="M87" s="2">
-        <v>3.989338684082</v>
+      <c r="M87">
+        <v>6.96826171875</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4545,8 +4540,8 @@
       <c r="L88">
         <v>175</v>
       </c>
-      <c r="M88" s="2">
-        <v>10.21484375</v>
+      <c r="M88">
+        <v>0.98440551757811934</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4586,8 +4581,8 @@
       <c r="L89">
         <v>40</v>
       </c>
-      <c r="M89" s="2">
-        <v>14.861099243164063</v>
+      <c r="M89">
+        <v>3.6210189819335596</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4627,8 +4622,8 @@
       <c r="L90">
         <v>40</v>
       </c>
-      <c r="M90" s="2">
-        <v>23.416137695312401</v>
+      <c r="M90">
+        <v>1.3306549072265597</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4668,8 +4663,8 @@
       <c r="L91">
         <v>175</v>
       </c>
-      <c r="M91" s="2">
-        <v>6.7581583658853974</v>
+      <c r="M91">
+        <v>3.4398773193359204</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4709,8 +4704,8 @@
       <c r="L92">
         <v>40</v>
       </c>
-      <c r="M92" s="2">
-        <v>4.0133361816405992</v>
+      <c r="M92">
+        <v>2.7210098266601195</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4750,8 +4745,8 @@
       <c r="L93">
         <v>175</v>
       </c>
-      <c r="M93" s="2">
-        <v>31.525619506835795</v>
+      <c r="M93">
+        <v>0.98788909912107958</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4791,8 +4786,8 @@
       <c r="L94">
         <v>40</v>
       </c>
-      <c r="M94" s="2">
-        <v>1.813229878743466</v>
+      <c r="M94">
+        <v>2.2360809326171589</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4832,8 +4827,8 @@
       <c r="L95">
         <v>40</v>
       </c>
-      <c r="M95" s="2">
-        <v>1.4557927449543986</v>
+      <c r="M95">
+        <v>3.7853851318359206</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4873,8 +4868,8 @@
       <c r="L96">
         <v>175</v>
       </c>
-      <c r="M96" s="2">
-        <v>1.2684661865234006</v>
+      <c r="M96">
+        <v>5.668397521972639</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4914,8 +4909,8 @@
       <c r="L97">
         <v>175</v>
       </c>
-      <c r="M97" s="2">
-        <v>3.3625259399414063</v>
+      <c r="M97">
+        <v>1.6722778320312386</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4955,8 +4950,8 @@
       <c r="L98">
         <v>40</v>
       </c>
-      <c r="M98" s="2">
-        <v>6.028472900390601</v>
+      <c r="M98">
+        <v>2.2334548950195199</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4996,8 +4991,8 @@
       <c r="L99">
         <v>175</v>
       </c>
-      <c r="M99" s="2">
-        <v>17.191749572753807</v>
+      <c r="M99">
+        <v>1.2077804565429602</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -5037,8 +5032,8 @@
       <c r="L100">
         <v>40</v>
       </c>
-      <c r="M100" s="2">
-        <v>11.159172058105398</v>
+      <c r="M100">
+        <v>0.64604187011715908</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -5078,8 +5073,8 @@
       <c r="L101">
         <v>175</v>
       </c>
-      <c r="M101" s="2">
-        <v>30.380355834960795</v>
+      <c r="M101">
+        <v>0.37978973388671877</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -5119,8 +5114,8 @@
       <c r="L102">
         <v>175</v>
       </c>
-      <c r="M102" s="2">
-        <v>44.566177368164006</v>
+      <c r="M102">
+        <v>1.2691360473632813</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5160,8 +5155,8 @@
       <c r="L103">
         <v>40</v>
       </c>
-      <c r="M103" s="2">
-        <v>31.723411560058594</v>
+      <c r="M103">
+        <v>0.44453735351559942</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5201,8 +5196,8 @@
       <c r="L104">
         <v>175</v>
       </c>
-      <c r="M104" s="2">
-        <v>6.3416732788085595</v>
+      <c r="M104">
+        <v>6.0448135375976388</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5242,8 +5237,8 @@
       <c r="L105">
         <v>40</v>
       </c>
-      <c r="M105" s="2">
-        <v>2.9783299763997348</v>
+      <c r="M105">
+        <v>3.5898757934569998</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5283,8 +5278,8 @@
       <c r="L106">
         <v>175</v>
       </c>
-      <c r="M106" s="2">
-        <v>2.2225418090819979</v>
+      <c r="M106">
+        <v>2.0472686767578012</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5324,8 +5319,8 @@
       <c r="L107">
         <v>40</v>
       </c>
-      <c r="M107" s="2">
-        <v>1.66890411376952</v>
+      <c r="M107">
+        <v>3.4114456176757613</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5365,8 +5360,8 @@
       <c r="L108">
         <v>40</v>
       </c>
-      <c r="M108" s="2">
-        <v>2.0101064046223343</v>
+      <c r="M108">
+        <v>1.6339050292968409</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5406,8 +5401,8 @@
       <c r="L109">
         <v>175</v>
       </c>
-      <c r="M109" s="2">
-        <v>4.0350850423176654</v>
+      <c r="M109">
+        <v>3.6234115600585595</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5447,8 +5442,8 @@
       <c r="L110">
         <v>175</v>
       </c>
-      <c r="M110" s="2">
-        <v>17.019775390625</v>
+      <c r="M110">
+        <v>1.3303359985351193</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5488,8 +5483,8 @@
       <c r="L111">
         <v>175</v>
       </c>
-      <c r="M111" s="2">
-        <v>43.180084228515597</v>
+      <c r="M111">
+        <v>0.64636840820311936</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5529,8 +5524,8 @@
       <c r="L112">
         <v>40</v>
       </c>
-      <c r="M112" s="2">
-        <v>13.599174499511605</v>
+      <c r="M112">
+        <v>1.1348632812499999</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5570,8 +5565,8 @@
       <c r="L113">
         <v>175</v>
       </c>
-      <c r="M113" s="2">
-        <v>5.624376932779934</v>
+      <c r="M113">
+        <v>5.1771240234374805</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5611,8 +5606,8 @@
       <c r="L114">
         <v>40</v>
       </c>
-      <c r="M114" s="2">
-        <v>2.7802937825520644</v>
+      <c r="M114">
+        <v>3.4434524536132813</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5652,8 +5647,8 @@
       <c r="L115">
         <v>40</v>
       </c>
-      <c r="M115" s="2">
-        <v>1.1348215738932008</v>
+      <c r="M115">
+        <v>1.5544769287109204</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5693,8 +5688,8 @@
       <c r="L116">
         <v>40</v>
       </c>
-      <c r="M116" s="2">
-        <v>5.7322616577148011</v>
+      <c r="M116">
+        <v>3.8012481689452811</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5734,8 +5729,8 @@
       <c r="L117">
         <v>40</v>
       </c>
-      <c r="M117" s="2">
-        <v>4.0340194702148011</v>
+      <c r="M117">
+        <v>1.8262466430664006</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5775,8 +5770,8 @@
       <c r="L118">
         <v>175</v>
       </c>
-      <c r="M118" s="2">
-        <v>4.037778218587202</v>
+      <c r="M118">
+        <v>2.0199676513671592</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5816,8 +5811,8 @@
       <c r="L119">
         <v>175</v>
       </c>
-      <c r="M119" s="2">
-        <v>10.131360371907533</v>
+      <c r="M119">
+        <v>1.6334915161132813</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5857,8 +5852,8 @@
       <c r="L120">
         <v>175</v>
       </c>
-      <c r="M120" s="2">
-        <v>14.852076212565066</v>
+      <c r="M120">
+        <v>3.2696960449218411</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5898,8 +5893,8 @@
       <c r="L121">
         <v>175</v>
       </c>
-      <c r="M121" s="2">
-        <v>9.9736429850259984</v>
+      <c r="M121">
+        <v>5.3525253295898407</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5939,8 +5934,8 @@
       <c r="L122">
         <v>40</v>
       </c>
-      <c r="M122" s="2">
-        <v>18.462356567382798</v>
+      <c r="M122">
+        <v>0.98581848144528128</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5980,8 +5975,8 @@
       <c r="L123">
         <v>175</v>
       </c>
-      <c r="M123" s="2">
-        <v>5.0647099812825331</v>
+      <c r="M123">
+        <v>1.3335830688476391</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -6021,8 +6016,8 @@
       <c r="L124">
         <v>40</v>
       </c>
-      <c r="M124" s="2">
-        <v>0.80688323974607956</v>
+      <c r="M124">
+        <v>1.8952667236328011</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -6062,8 +6057,8 @@
       <c r="L125">
         <v>175</v>
       </c>
-      <c r="M125" s="2">
-        <v>6.3096771240233949</v>
+      <c r="M125">
+        <v>1.1983093261718409</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -6103,8 +6098,8 @@
       <c r="L126">
         <v>40</v>
       </c>
-      <c r="M126" s="2">
-        <v>3.8194458007812386</v>
+      <c r="M126">
+        <v>5.6800415039062386</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -6144,8 +6139,8 @@
       <c r="L127">
         <v>175</v>
       </c>
-      <c r="M127" s="2">
-        <v>6.6577301025390012</v>
+      <c r="M127">
+        <v>3.5972167968750002</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6185,8 +6180,8 @@
       <c r="L128">
         <v>175</v>
       </c>
-      <c r="M128" s="2">
-        <v>12.115600585937401</v>
+      <c r="M128">
+        <v>0.6800872802734006</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6226,8 +6221,8 @@
       <c r="L129">
         <v>40</v>
       </c>
-      <c r="M129" s="2">
-        <v>3.7192509969075331</v>
+      <c r="M129">
+        <v>3.4487152099609206</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6267,8 +6262,8 @@
       <c r="L130">
         <v>175</v>
       </c>
-      <c r="M130" s="2">
-        <v>4.3667068481445313</v>
+      <c r="M130">
+        <v>3.5968841552734006</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6308,8 +6303,8 @@
       <c r="L131">
         <v>40</v>
       </c>
-      <c r="M131" s="2">
-        <v>10.132568359375</v>
+      <c r="M131">
+        <v>5.3567779541015597</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6349,8 +6344,8 @@
       <c r="L132">
         <v>40</v>
       </c>
-      <c r="M132" s="2">
-        <v>9.554244995117136</v>
+      <c r="M132">
+        <v>5.352783203125</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6390,8 +6385,8 @@
       <c r="L133">
         <v>175</v>
       </c>
-      <c r="M133" s="2">
-        <v>34.815422058105398</v>
+      <c r="M133">
+        <v>1.7871383666991989</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6431,8 +6426,8 @@
       <c r="L134">
         <v>175</v>
       </c>
-      <c r="M134" s="2">
-        <v>31.527175903320199</v>
+      <c r="M134">
+        <v>0.98541107177732101</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6472,8 +6467,8 @@
       <c r="L135">
         <v>40</v>
       </c>
-      <c r="M135" s="2">
-        <v>2.7183410644531194</v>
+      <c r="M135">
+        <v>5.4506607055664009</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6513,8 +6508,8 @@
       <c r="L136">
         <v>40</v>
       </c>
-      <c r="M136" s="2">
-        <v>1.1467681884765597</v>
+      <c r="M136">
+        <v>8.6386566162109197</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6554,8 +6549,8 @@
       <c r="L137">
         <v>40</v>
       </c>
-      <c r="M137" s="2">
-        <v>5.7330169677733949</v>
+      <c r="M137">
+        <v>0.68195800781248006</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6595,8 +6590,8 @@
       <c r="L138">
         <v>40</v>
       </c>
-      <c r="M138" s="2">
-        <v>1.340278625488267</v>
+      <c r="M138">
+        <v>1.5536849975585596</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6636,8 +6631,8 @@
       <c r="L139">
         <v>40</v>
       </c>
-      <c r="M139" s="2">
-        <v>1.339111328125</v>
+      <c r="M139">
+        <v>3.6208389282226392</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6677,8 +6672,8 @@
       <c r="L140">
         <v>175</v>
       </c>
-      <c r="M140" s="2">
-        <v>8.3428115844725994</v>
+      <c r="M140">
+        <v>1.9381622314452813</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6718,8 +6713,8 @@
       <c r="L141">
         <v>175</v>
       </c>
-      <c r="M141" s="2">
-        <v>6.6590525309244653</v>
+      <c r="M141">
+        <v>1.8264434814452812</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6759,8 +6754,8 @@
       <c r="L142">
         <v>40</v>
       </c>
-      <c r="M142" s="2">
-        <v>2.4121490478515595</v>
+      <c r="M142">
+        <v>5.9839126586914002</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6800,8 +6795,8 @@
       <c r="L143">
         <v>40</v>
       </c>
-      <c r="M143" s="2">
-        <v>13.913177490234338</v>
+      <c r="M143">
+        <v>2.0414367675781193</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6841,8 +6836,8 @@
       <c r="L144">
         <v>40</v>
       </c>
-      <c r="M144" s="2">
-        <v>20.200851440429602</v>
+      <c r="M144">
+        <v>0.80798492431640057</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6882,8 +6877,8 @@
       <c r="L145">
         <v>40</v>
       </c>
-      <c r="M145" s="2">
-        <v>6.7616399129231342</v>
+      <c r="M145">
+        <v>5.1690612792968409</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6923,8 +6918,8 @@
       <c r="L146">
         <v>40</v>
       </c>
-      <c r="M146" s="2">
-        <v>1.3333648681640398</v>
+      <c r="M146">
+        <v>5.684161376953119</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6964,8 +6959,8 @@
       <c r="L147">
         <v>175</v>
       </c>
-      <c r="M147" s="2">
-        <v>1.2725006103515597</v>
+      <c r="M147">
+        <v>3.3704345703124803</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -7005,8 +7000,8 @@
       <c r="L148">
         <v>40</v>
       </c>
-      <c r="M148" s="2">
-        <v>1.6675094604491989</v>
+      <c r="M148">
+        <v>3.3672760009765597</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -7046,8 +7041,8 @@
       <c r="L149">
         <v>40</v>
       </c>
-      <c r="M149" s="2">
-        <v>8.338134765625</v>
+      <c r="M149">
+        <v>0.60754852294919881</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -7087,8 +7082,8 @@
       <c r="L150">
         <v>40</v>
       </c>
-      <c r="M150" s="2">
-        <v>0.73855895996092047</v>
+      <c r="M150">
+        <v>4.042118835449199</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -7128,8 +7123,8 @@
       <c r="L151">
         <v>175</v>
       </c>
-      <c r="M151" s="2">
-        <v>4.6835479736327983</v>
+      <c r="M151">
+        <v>1.1376358032226392</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -7169,8 +7164,8 @@
       <c r="L152">
         <v>40</v>
       </c>
-      <c r="M152" s="2">
-        <v>3.6914342244466005</v>
+      <c r="M152">
+        <v>2.0197067260741988</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7210,8 +7205,8 @@
       <c r="L153">
         <v>40</v>
       </c>
-      <c r="M153" s="2">
-        <v>11.089235941569001</v>
+      <c r="M153">
+        <v>5.0159515380859201</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7251,8 +7246,8 @@
       <c r="L154">
         <v>175</v>
       </c>
-      <c r="M154" s="2">
-        <v>3.0388092041015597</v>
+      <c r="M154">
+        <v>4.6506225585937191</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7292,8 +7287,8 @@
       <c r="L155">
         <v>40</v>
       </c>
-      <c r="M155" s="2">
-        <v>2.9754257202148011</v>
+      <c r="M155">
+        <v>1.937521362304679</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7333,8 +7328,8 @@
       <c r="L156">
         <v>175</v>
       </c>
-      <c r="M156" s="2">
-        <v>8.6251602172849999</v>
+      <c r="M156">
+        <v>0.92734832763671871</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7374,8 +7369,8 @@
       <c r="L157">
         <v>40</v>
       </c>
-      <c r="M157" s="2">
-        <v>2.0260874430338021</v>
+      <c r="M157">
+        <v>3.4445480346679602</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7415,8 +7410,8 @@
       <c r="L158">
         <v>40</v>
       </c>
-      <c r="M158" s="2">
-        <v>8.3390350341796022</v>
+      <c r="M158">
+        <v>0.80593414306640054</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7456,8 +7451,8 @@
       <c r="L159">
         <v>40</v>
       </c>
-      <c r="M159" s="2">
-        <v>0.74379272460936074</v>
+      <c r="M159">
+        <v>2.903341674804679</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7497,8 +7492,8 @@
       <c r="L160">
         <v>40</v>
       </c>
-      <c r="M160" s="2">
-        <v>4.3668289184569984</v>
+      <c r="M160">
+        <v>2.042379760742159</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7538,8 +7533,8 @@
       <c r="L161">
         <v>175</v>
       </c>
-      <c r="M161" s="2">
-        <v>2.2186813354491988</v>
+      <c r="M161">
+        <v>2.5894134521484005</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7579,8 +7574,8 @@
       <c r="L162">
         <v>175</v>
       </c>
-      <c r="M162" s="2">
-        <v>9.1209945678709943</v>
+      <c r="M162">
+        <v>0.58049163818355964</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7620,8 +7615,8 @@
       <c r="L163">
         <v>40</v>
       </c>
-      <c r="M163" s="2">
-        <v>27.207771301269403</v>
+      <c r="M163">
+        <v>1.1470123291015597</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7661,8 +7656,8 @@
       <c r="L164">
         <v>175</v>
       </c>
-      <c r="M164" s="2">
-        <v>10.125101725260398</v>
+      <c r="M164">
+        <v>3.6157257080078011</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7702,8 +7697,8 @@
       <c r="L165">
         <v>40</v>
       </c>
-      <c r="M165" s="2">
-        <v>5.6222254435221357</v>
+      <c r="M165">
+        <v>3.4387008666991989</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7743,8 +7738,8 @@
       <c r="L166">
         <v>175</v>
       </c>
-      <c r="M166" s="2">
-        <v>1.9119898478190009</v>
+      <c r="M166">
+        <v>1.5275512695312385</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7784,8 +7779,8 @@
       <c r="L167">
         <v>40</v>
       </c>
-      <c r="M167" s="2">
-        <v>1.890622456868466</v>
+      <c r="M167">
+        <v>2.7895370483398407</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7825,8 +7820,8 @@
       <c r="L168">
         <v>40</v>
       </c>
-      <c r="M168" s="2">
-        <v>2.6223037719726392</v>
+      <c r="M168">
+        <v>2.2251464843750002</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7866,8 +7861,8 @@
       <c r="L169">
         <v>175</v>
       </c>
-      <c r="M169" s="2">
-        <v>2.2327713012695201</v>
+      <c r="M169">
+        <v>6.0013549804687187</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7907,8 +7902,8 @@
       <c r="L170">
         <v>175</v>
       </c>
-      <c r="M170" s="2">
-        <v>2.0247085571288808</v>
+      <c r="M170">
+        <v>3.7196975708007614</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7948,8 +7943,8 @@
       <c r="L171">
         <v>40</v>
       </c>
-      <c r="M171" s="2">
-        <v>12.058769226074205</v>
+      <c r="M171">
+        <v>0.98502655029296027</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7989,8 +7984,8 @@
       <c r="L172">
         <v>175</v>
       </c>
-      <c r="M172" s="2">
-        <v>6.3443923950195202</v>
+      <c r="M172">
+        <v>2.546467590332</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -8030,8 +8025,8 @@
       <c r="L173">
         <v>40</v>
       </c>
-      <c r="M173" s="2">
-        <v>31.578514099120994</v>
+      <c r="M173">
+        <v>1.7869934082031194</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -8071,8 +8066,8 @@
       <c r="L174">
         <v>175</v>
       </c>
-      <c r="M174" s="2">
-        <v>6.7019653320311976</v>
+      <c r="M174">
+        <v>1.5536590576171592</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -8112,8 +8107,8 @@
       <c r="L175">
         <v>40</v>
       </c>
-      <c r="M175" s="2">
-        <v>13.596557617187401</v>
+      <c r="M175">
+        <v>1.6668975830078012</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -8153,8 +8148,8 @@
       <c r="L176">
         <v>40</v>
       </c>
-      <c r="M176" s="2">
-        <v>3.7144622802733949</v>
+      <c r="M176">
+        <v>1.0871917724609204</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -8194,8 +8189,8 @@
       <c r="L177">
         <v>175</v>
       </c>
-      <c r="M177" s="2">
-        <v>0.87240142822263922</v>
+      <c r="M177">
+        <v>4.6289138793945197</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8235,8 +8230,8 @@
       <c r="L178">
         <v>175</v>
       </c>
-      <c r="M178" s="2">
-        <v>8.9105885823567323</v>
+      <c r="M178">
+        <v>3.7847549438476391</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8276,8 +8271,8 @@
       <c r="L179">
         <v>175</v>
       </c>
-      <c r="M179" s="2">
-        <v>3.6406951904296792</v>
+      <c r="M179">
+        <v>6.3532226562499998</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8317,8 +8312,8 @@
       <c r="L180">
         <v>40</v>
       </c>
-      <c r="M180" s="2">
-        <v>12.093574523925597</v>
+      <c r="M180">
+        <v>1.1343948364257614</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8358,8 +8353,8 @@
       <c r="L181">
         <v>175</v>
       </c>
-      <c r="M181" s="2">
-        <v>9.1107330322264062</v>
+      <c r="M181">
+        <v>0.37983856201171873</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8399,8 +8394,8 @@
       <c r="L182">
         <v>175</v>
       </c>
-      <c r="M182" s="2">
-        <v>18.571807861327997</v>
+      <c r="M182">
+        <v>0.44392242431640055</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8440,8 +8435,8 @@
       <c r="L183">
         <v>40</v>
       </c>
-      <c r="M183" s="2">
-        <v>2.1195500691731346</v>
+      <c r="M183">
+        <v>3.2744277954101193</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8481,8 +8476,8 @@
       <c r="L184">
         <v>175</v>
       </c>
-      <c r="M184" s="2">
-        <v>1.3303787231445199</v>
+      <c r="M184">
+        <v>2.5469650268554402</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8522,8 +8517,8 @@
       <c r="L185">
         <v>175</v>
       </c>
-      <c r="M185" s="2">
-        <v>5.9873733520505965</v>
+      <c r="M185">
+        <v>0.37960052490232099</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8563,8 +8558,8 @@
       <c r="L186">
         <v>40</v>
       </c>
-      <c r="M186" s="2">
-        <v>1.2612670898437188</v>
+      <c r="M186">
+        <v>5.7441513061523208</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -8604,8 +8599,8 @@
       <c r="L187">
         <v>175</v>
       </c>
-      <c r="M187" s="2">
-        <v>3.9875381469726392</v>
+      <c r="M187">
+        <v>2.5910507202148407</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -8645,8 +8640,8 @@
       <c r="L188">
         <v>40</v>
       </c>
-      <c r="M188" s="2">
-        <v>6.3366897583007615</v>
+      <c r="M188">
+        <v>5.6794219970702811</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8686,8 +8681,8 @@
       <c r="L189">
         <v>175</v>
       </c>
-      <c r="M189" s="2">
-        <v>11.594103495279933</v>
+      <c r="M189">
+        <v>5.1765716552734009</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8727,8 +8722,8 @@
       <c r="L190">
         <v>40</v>
       </c>
-      <c r="M190" s="2">
-        <v>28.339958190917798</v>
+      <c r="M190">
+        <v>0.92631225585936083</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8768,8 +8763,8 @@
       <c r="L191">
         <v>175</v>
       </c>
-      <c r="M191" s="2">
-        <v>9.4448750813801983</v>
+      <c r="M191">
+        <v>3.445452880859361</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8809,8 +8804,8 @@
       <c r="L192">
         <v>175</v>
       </c>
-      <c r="M192" s="2">
-        <v>1.0867416381835597</v>
+      <c r="M192">
+        <v>2.9088714599609204</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8850,8 +8845,8 @@
       <c r="L193">
         <v>175</v>
       </c>
-      <c r="M193" s="2">
-        <v>1.2390925089517992</v>
+      <c r="M193">
+        <v>2.4193771362304402</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8891,8 +8886,8 @@
       <c r="L194">
         <v>40</v>
       </c>
-      <c r="M194" s="2">
-        <v>4.6819915771483949</v>
+      <c r="M194">
+        <v>1.2695663452148409</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8932,8 +8927,8 @@
       <c r="L195">
         <v>40</v>
       </c>
-      <c r="M195" s="2">
-        <v>5.9878616333005965</v>
+      <c r="M195">
+        <v>1.7854354858398409</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8973,8 +8968,8 @@
       <c r="L196">
         <v>175</v>
       </c>
-      <c r="M196" s="2">
-        <v>1.1337142944335596</v>
+      <c r="M196">
+        <v>1.8990325927734006</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -9014,8 +9009,8 @@
       <c r="L197">
         <v>40</v>
       </c>
-      <c r="M197" s="2">
-        <v>0.67439117431640061</v>
+      <c r="M197">
+        <v>4.6362991333007617</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -9055,8 +9050,8 @@
       <c r="L198">
         <v>175</v>
       </c>
-      <c r="M198" s="2">
-        <v>11.145179748535</v>
+      <c r="M198">
+        <v>1.1355422973632812</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -9096,8 +9091,8 @@
       <c r="L199">
         <v>175</v>
       </c>
-      <c r="M199" s="2">
-        <v>10.075866699218594</v>
+      <c r="M199">
+        <v>1.1358383178710796</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -9137,8 +9132,8 @@
       <c r="L200">
         <v>40</v>
       </c>
-      <c r="M200" s="2">
-        <v>30.116027832031193</v>
+      <c r="M200">
+        <v>1.1342453002929602</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -9178,8 +9173,8 @@
       <c r="L201">
         <v>175</v>
       </c>
-      <c r="M201" s="2">
-        <v>4.0516113281250004</v>
+      <c r="M201">
+        <v>5.4550140380859204</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -9219,8 +9214,8 @@
       <c r="L202">
         <v>175</v>
       </c>
-      <c r="M202" s="2">
-        <v>6.6925252278645315</v>
+      <c r="M202">
+        <v>4.1836318969726394</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9260,8 +9255,8 @@
       <c r="L203">
         <v>175</v>
       </c>
-      <c r="M203" s="2">
-        <v>1.3501739501952652</v>
+      <c r="M203">
+        <v>1.13985137939452</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9301,8 +9296,8 @@
       <c r="L204">
         <v>175</v>
       </c>
-      <c r="M204" s="2">
-        <v>3.3590850830077983</v>
+      <c r="M204">
+        <v>0.38001708984371874</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9342,8 +9337,8 @@
       <c r="L205">
         <v>40</v>
       </c>
-      <c r="M205" s="2">
-        <v>6.0669357299804405</v>
+      <c r="M205">
+        <v>8.9212005615234382</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9383,8 +9378,8 @@
       <c r="L206">
         <v>40</v>
       </c>
-      <c r="M206" s="2">
-        <v>6.0163085937499998</v>
+      <c r="M206">
+        <v>4.6268768310546786</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9424,8 +9419,8 @@
       <c r="L207">
         <v>40</v>
       </c>
-      <c r="M207" s="2">
-        <v>4.0119888305664002</v>
+      <c r="M207">
+        <v>8.6154876708984371</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9465,8 +9460,8 @@
       <c r="L208">
         <v>175</v>
       </c>
-      <c r="M208" s="2">
-        <v>9.966771443684868</v>
+      <c r="M208">
+        <v>1.8245407104491989</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9506,8 +9501,8 @@
       <c r="L209">
         <v>40</v>
       </c>
-      <c r="M209" s="2">
-        <v>0.73831176757811934</v>
+      <c r="M209">
+        <v>2.9095092773437186</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9547,8 +9542,8 @@
       <c r="L210">
         <v>40</v>
       </c>
-      <c r="M210" s="2">
-        <v>3.3715438842772016</v>
+      <c r="M210">
+        <v>0.60853271484371874</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9588,8 +9583,8 @@
       <c r="L211">
         <v>40</v>
       </c>
-      <c r="M211" s="2">
-        <v>0.60755004882811936</v>
+      <c r="M211">
+        <v>2.2229324340819998</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9629,8 +9624,8 @@
       <c r="L212">
         <v>175</v>
       </c>
-      <c r="M212" s="2">
-        <v>3.8138000488281194</v>
+      <c r="M212">
+        <v>5.2420410156250004</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -9670,8 +9665,8 @@
       <c r="L213">
         <v>175</v>
       </c>
-      <c r="M213" s="2">
-        <v>20.259605407714801</v>
+      <c r="M213">
+        <v>1.3929763793945198</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -9711,8 +9706,8 @@
       <c r="L214">
         <v>175</v>
       </c>
-      <c r="M214" s="2">
-        <v>5.6702448527017992</v>
+      <c r="M214">
+        <v>1.7435348510741988</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9752,8 +9747,8 @@
       <c r="L215">
         <v>40</v>
       </c>
-      <c r="M215" s="2">
-        <v>7.2731374104817332</v>
+      <c r="M215">
+        <v>3.449603271484361</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9793,8 +9788,8 @@
       <c r="L216">
         <v>40</v>
       </c>
-      <c r="M216" s="2">
-        <v>3.6907852172851192</v>
+      <c r="M216">
+        <v>4.0421600341796786</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9834,8 +9829,8 @@
       <c r="L217">
         <v>40</v>
       </c>
-      <c r="M217" s="2">
-        <v>3.3719253540038068</v>
+      <c r="M217">
+        <v>1.6667572021484005</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9875,8 +9870,8 @@
       <c r="L218">
         <v>175</v>
       </c>
-      <c r="M218" s="2">
-        <v>1.8898671468098673</v>
+      <c r="M218">
+        <v>2.7856735229491987</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9916,8 +9911,8 @@
       <c r="L219">
         <v>175</v>
       </c>
-      <c r="M219" s="2">
-        <v>1.2618682861328012</v>
+      <c r="M219">
+        <v>6.6510696411132813</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9957,8 +9952,8 @@
       <c r="L220">
         <v>175</v>
       </c>
-      <c r="M220" s="2">
-        <v>16.316886901855398</v>
+      <c r="M220">
+        <v>1.2085830688476391</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9998,8 +9993,8 @@
       <c r="L221">
         <v>175</v>
       </c>
-      <c r="M221" s="2">
-        <v>2.8089340209960794</v>
+      <c r="M221">
+        <v>6.0371658325195199</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -10039,8 +10034,8 @@
       <c r="L222">
         <v>175</v>
       </c>
-      <c r="M222" s="2">
-        <v>2.7163345336914007</v>
+      <c r="M222">
+        <v>3.411642456054679</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -10080,8 +10075,8 @@
       <c r="L223">
         <v>40</v>
       </c>
-      <c r="M223" s="2">
-        <v>1.2136596679687188</v>
+      <c r="M223">
+        <v>6.978761291503881</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -10121,8 +10116,8 @@
       <c r="L224">
         <v>40</v>
       </c>
-      <c r="M224" s="2">
-        <v>1.8096008300780682</v>
+      <c r="M224">
+        <v>3.7890640258788806</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -10162,8 +10157,8 @@
       <c r="L225">
         <v>40</v>
       </c>
-      <c r="M225" s="2">
-        <v>1.3503697713216003</v>
+      <c r="M225">
+        <v>3.8092727661132813</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -10203,8 +10198,8 @@
       <c r="L226">
         <v>40</v>
       </c>
-      <c r="M226" s="2">
-        <v>1.3373896280924005</v>
+      <c r="M226">
+        <v>2.423643493652321</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -10244,8 +10239,8 @@
       <c r="L227">
         <v>40</v>
       </c>
-      <c r="M227" s="2">
-        <v>3.9857925415038808</v>
+      <c r="M227">
+        <v>5.237023925781239</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10285,8 +10280,8 @@
       <c r="L228">
         <v>175</v>
       </c>
-      <c r="M228" s="2">
-        <v>1.8218490600585597</v>
+      <c r="M228">
+        <v>5.7435958862304402</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10326,8 +10321,8 @@
       <c r="L229">
         <v>40</v>
       </c>
-      <c r="M229" s="2">
-        <v>11.092397054036402</v>
+      <c r="M229">
+        <v>4.1816955566405998</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10367,8 +10362,8 @@
       <c r="L230">
         <v>175</v>
       </c>
-      <c r="M230" s="2">
-        <v>3.3709182739257613</v>
+      <c r="M230">
+        <v>5.7425048828124803</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10408,8 +10403,8 @@
       <c r="L231">
         <v>40</v>
       </c>
-      <c r="M231" s="2">
-        <v>1.2039352416991989</v>
+      <c r="M231">
+        <v>1.8990615844726393</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10449,8 +10444,8 @@
       <c r="L232">
         <v>175</v>
       </c>
-      <c r="M232" s="2">
-        <v>1.2136184692382812</v>
+      <c r="M232">
+        <v>3.0428451538085595</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10490,8 +10485,8 @@
       <c r="L233">
         <v>175</v>
       </c>
-      <c r="M233" s="2">
-        <v>1.7810546875</v>
+      <c r="M233">
+        <v>3.721617126464841</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10531,8 +10526,8 @@
       <c r="L234">
         <v>40</v>
       </c>
-      <c r="M234" s="2">
-        <v>1.1203308105468655</v>
+      <c r="M234">
+        <v>1.5284790039062386</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10572,8 +10567,8 @@
       <c r="L235">
         <v>175</v>
       </c>
-      <c r="M235" s="2">
-        <v>3.5903579711914007</v>
+      <c r="M235">
+        <v>8.3503326416015629</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10613,8 +10608,8 @@
       <c r="L236">
         <v>175</v>
       </c>
-      <c r="M236" s="2">
-        <v>28.611648559570199</v>
+      <c r="M236">
+        <v>0.67998809814451988</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10654,8 +10649,8 @@
       <c r="L237">
         <v>175</v>
       </c>
-      <c r="M237" s="2">
-        <v>33.286956787109204</v>
+      <c r="M237">
+        <v>1.0480148315429603</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10695,8 +10690,8 @@
       <c r="L238">
         <v>175</v>
       </c>
-      <c r="M238" s="2">
-        <v>6.3561843872069996</v>
+      <c r="M238">
+        <v>3.7227584838867189</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -10736,8 +10731,8 @@
       <c r="L239">
         <v>175</v>
       </c>
-      <c r="M239" s="2">
-        <v>27.158645629882798</v>
+      <c r="M239">
+        <v>1.7285171508788806</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -10777,8 +10772,8 @@
       <c r="L240">
         <v>40</v>
       </c>
-      <c r="M240" s="2">
-        <v>5.7223342895507612</v>
+      <c r="M240">
+        <v>5.4397033691405996</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10818,8 +10813,8 @@
       <c r="L241">
         <v>175</v>
       </c>
-      <c r="M241" s="2">
-        <v>14.3487396240234</v>
+      <c r="M241">
+        <v>5.0189239501952816</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10859,8 +10854,8 @@
       <c r="L242">
         <v>175</v>
       </c>
-      <c r="M242" s="2">
-        <v>2.7157485961914007</v>
+      <c r="M242">
+        <v>8.9079772949218405</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10900,8 +10895,8 @@
       <c r="L243">
         <v>40</v>
       </c>
-      <c r="M243" s="2">
-        <v>3.6927185058592045</v>
+      <c r="M243">
+        <v>1.2617538452148409</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10941,8 +10936,8 @@
       <c r="L244">
         <v>175</v>
       </c>
-      <c r="M244" s="2">
-        <v>8.6181589762369324</v>
+      <c r="M244">
+        <v>3.9943695068359206</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10982,8 +10977,8 @@
       <c r="L245">
         <v>40</v>
       </c>
-      <c r="M245" s="2">
-        <v>2.4216857910155993</v>
+      <c r="M245">
+        <v>6.3109802246093611</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -11023,8 +11018,8 @@
       <c r="L246">
         <v>40</v>
       </c>
-      <c r="M246" s="2">
-        <v>10.095458984375</v>
+      <c r="M246">
+        <v>1.0906402587890398</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -11064,8 +11059,8 @@
       <c r="L247">
         <v>175</v>
       </c>
-      <c r="M247" s="2">
-        <v>2.017216491699199</v>
+      <c r="M247">
+        <v>8.9210937500000007</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -11105,8 +11100,8 @@
       <c r="L248">
         <v>175</v>
       </c>
-      <c r="M248" s="2">
-        <v>5.7246551513671591</v>
+      <c r="M248">
+        <v>4.9228912353515595</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -11146,8 +11141,8 @@
       <c r="L249">
         <v>175</v>
       </c>
-      <c r="M249" s="2">
-        <v>10.028577168782533</v>
+      <c r="M249">
+        <v>3.6158325195312386</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -11187,8 +11182,8 @@
       <c r="L250">
         <v>40</v>
       </c>
-      <c r="M250" s="2">
-        <v>11.606246948242136</v>
+      <c r="M250">
+        <v>1.742756652832</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -11228,8 +11223,8 @@
       <c r="L251">
         <v>175</v>
       </c>
-      <c r="M251" s="2">
-        <v>10.517644246419266</v>
+      <c r="M251">
+        <v>3.4475708007812385</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -11269,8 +11264,8 @@
       <c r="L252">
         <v>40</v>
       </c>
-      <c r="M252" s="2">
-        <v>3.3700027465820028</v>
+      <c r="M252">
+        <v>0.44460296630855967</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11310,8 +11305,8 @@
       <c r="L253">
         <v>175</v>
       </c>
-      <c r="M253" s="2">
-        <v>3.4483978271484004</v>
+      <c r="M253">
+        <v>3.0398193359374801</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11351,8 +11346,8 @@
       <c r="L254">
         <v>40</v>
       </c>
-      <c r="M254" s="2">
-        <v>10.232597351074205</v>
+      <c r="M254">
+        <v>1.2620742797851192</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11392,8 +11387,8 @@
       <c r="L255">
         <v>40</v>
       </c>
-      <c r="M255" s="2">
-        <v>19.967292785644403</v>
+      <c r="M255">
+        <v>1.7277984619140399</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11433,8 +11428,8 @@
       <c r="L256">
         <v>175</v>
       </c>
-      <c r="M256" s="2">
-        <v>14.405909220377604</v>
+      <c r="M256">
+        <v>2.0447143554687188</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11474,8 +11469,8 @@
       <c r="L257">
         <v>40</v>
       </c>
-      <c r="M257" s="2">
-        <v>14.882542928059868</v>
+      <c r="M257">
+        <v>1.7448394775390397</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11515,8 +11510,8 @@
       <c r="L258">
         <v>40</v>
       </c>
-      <c r="M258" s="2">
-        <v>10.5898030598958</v>
+      <c r="M258">
+        <v>1.6331771850585597</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11556,8 +11551,8 @@
       <c r="L259">
         <v>40</v>
       </c>
-      <c r="M259" s="2">
-        <v>4.3784103393554403</v>
+      <c r="M259">
+        <v>4.0404052734374805</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11597,8 +11592,8 @@
       <c r="L260">
         <v>175</v>
       </c>
-      <c r="M260" s="2">
-        <v>1.0922515869140397</v>
+      <c r="M260">
+        <v>1.8946456909179603</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11638,8 +11633,8 @@
       <c r="L261">
         <v>40</v>
       </c>
-      <c r="M261" s="2">
-        <v>6.0434163411458002</v>
+      <c r="M261">
+        <v>3.4070510864257613</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11679,8 +11674,8 @@
       <c r="L262">
         <v>40</v>
       </c>
-      <c r="M262" s="2">
-        <v>4.3773681640624797</v>
+      <c r="M262">
+        <v>3.0418228149414004</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11720,8 +11715,8 @@
       <c r="L263">
         <v>175</v>
       </c>
-      <c r="M263" s="2">
-        <v>6.0453414916992045</v>
+      <c r="M263">
+        <v>0.67323150634763917</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11761,8 +11756,8 @@
       <c r="L264">
         <v>40</v>
       </c>
-      <c r="M264" s="2">
-        <v>1.2331822713216003</v>
+      <c r="M264">
+        <v>1.5551071166991988</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -11802,8 +11797,8 @@
       <c r="L265">
         <v>40</v>
       </c>
-      <c r="M265" s="2">
-        <v>6.1065622965494653</v>
+      <c r="M265">
+        <v>2.0450057983398411</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -11843,8 +11838,8 @@
       <c r="L266">
         <v>175</v>
       </c>
-      <c r="M266" s="2">
-        <v>8.656766255696601</v>
+      <c r="M266">
+        <v>5.3552001953124799</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11884,8 +11879,8 @@
       <c r="L267">
         <v>175</v>
       </c>
-      <c r="M267" s="2">
-        <v>2.047262573242159</v>
+      <c r="M267">
+        <v>8.3403717041015621</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11925,8 +11920,8 @@
       <c r="L268">
         <v>175</v>
       </c>
-      <c r="M268" s="2">
-        <v>8.9510803222656019</v>
+      <c r="M268">
+        <v>6.6559448242187189</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11966,8 +11961,8 @@
       <c r="L269">
         <v>40</v>
       </c>
-      <c r="M269" s="2">
-        <v>8.3723693847656016</v>
+      <c r="M269">
+        <v>3.3641647338867187</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -12007,8 +12002,8 @@
       <c r="L270">
         <v>40</v>
       </c>
-      <c r="M270" s="2">
-        <v>33.306579589843594</v>
+      <c r="M270">
+        <v>0.80790405273436083</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -12048,8 +12043,8 @@
       <c r="L271">
         <v>40</v>
       </c>
-      <c r="M271" s="2">
-        <v>3.3810119628905992</v>
+      <c r="M271">
+        <v>3.4091766357421589</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -12089,8 +12084,8 @@
       <c r="L272">
         <v>40</v>
       </c>
-      <c r="M272" s="2">
-        <v>3.7246551513670028</v>
+      <c r="M272">
+        <v>0.60730590820311936</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -12130,8 +12125,8 @@
       <c r="L273">
         <v>40</v>
       </c>
-      <c r="M273" s="2">
-        <v>0.87470855712888063</v>
+      <c r="M273">
+        <v>3.4085769653320002</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -12171,8 +12166,8 @@
       <c r="L274">
         <v>175</v>
       </c>
-      <c r="M274" s="2">
-        <v>1.2699371337890397</v>
+      <c r="M274">
+        <v>5.4407714843750004</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -12212,8 +12207,8 @@
       <c r="L275">
         <v>175</v>
       </c>
-      <c r="M275" s="2">
-        <v>3.4488555908202811</v>
+      <c r="M275">
+        <v>3.2199523925781195</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -12253,8 +12248,8 @@
       <c r="L276">
         <v>40</v>
       </c>
-      <c r="M276" s="2">
-        <v>6.3826853434244653</v>
+      <c r="M276">
+        <v>3.1354919433593609</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -12294,8 +12289,8 @@
       <c r="L277">
         <v>175</v>
       </c>
-      <c r="M277" s="2">
-        <v>26.789001464843594</v>
+      <c r="M277">
+        <v>0.517578125</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12335,8 +12330,8 @@
       <c r="L278">
         <v>40</v>
       </c>
-      <c r="M278" s="2">
-        <v>30.489280700683594</v>
+      <c r="M278">
+        <v>0.74340057373044033</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12376,8 +12371,8 @@
       <c r="L279">
         <v>40</v>
       </c>
-      <c r="M279" s="2">
-        <v>20.320083618164006</v>
+      <c r="M279">
+        <v>1.3315704345702812</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12417,8 +12412,8 @@
       <c r="L280">
         <v>175</v>
       </c>
-      <c r="M280" s="2">
-        <v>5.9903045654296792</v>
+      <c r="M280">
+        <v>2.7224380493164007</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12458,8 +12453,8 @@
       <c r="L281">
         <v>175</v>
       </c>
-      <c r="M281" s="2">
-        <v>4.5371678670247348</v>
+      <c r="M281">
+        <v>2.0427871704101195</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12499,8 +12494,8 @@
       <c r="L282">
         <v>40</v>
       </c>
-      <c r="M282" s="2">
-        <v>6.3834991455077983</v>
+      <c r="M282">
+        <v>0.92747344970699996</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12540,8 +12535,8 @@
       <c r="L283">
         <v>175</v>
       </c>
-      <c r="M283" s="2">
-        <v>1.3547846476236647</v>
+      <c r="M283">
+        <v>3.9918060302734006</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12581,8 +12576,8 @@
       <c r="L284">
         <v>175</v>
       </c>
-      <c r="M284" s="2">
-        <v>1.1372655232747348</v>
+      <c r="M284">
+        <v>5.0179000854491989</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12622,8 +12617,8 @@
       <c r="L285">
         <v>40</v>
       </c>
-      <c r="M285" s="2">
-        <v>5.9944458007811932</v>
+      <c r="M285">
+        <v>1.7266921997069999</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12663,8 +12658,8 @@
       <c r="L286">
         <v>40</v>
       </c>
-      <c r="M286" s="2">
-        <v>6.3852183024088021</v>
+      <c r="M286">
+        <v>5.1807937622070002</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12704,8 +12699,8 @@
       <c r="L287">
         <v>175</v>
       </c>
-      <c r="M287" s="2">
-        <v>8.3605779012043993</v>
+      <c r="M287">
+        <v>1.7433731079101193</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12745,8 +12740,8 @@
       <c r="L288">
         <v>175</v>
       </c>
-      <c r="M288" s="2">
-        <v>3.8133239746093608</v>
+      <c r="M288">
+        <v>5.2180664062500002</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12786,8 +12781,8 @@
       <c r="L289">
         <v>40</v>
       </c>
-      <c r="M289" s="2">
-        <v>12.125816345214801</v>
+      <c r="M289">
+        <v>1.1993286132812386</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12827,8 +12822,8 @@
       <c r="L290">
         <v>175</v>
       </c>
-      <c r="M290" s="2">
-        <v>2.6250488281250002</v>
+      <c r="M290">
+        <v>2.5470336914062388</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -12868,8 +12863,8 @@
       <c r="L291">
         <v>175</v>
       </c>
-      <c r="M291" s="2">
-        <v>4.3741734822590672</v>
+      <c r="M291">
+        <v>2.0163711547851193</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -12909,8 +12904,8 @@
       <c r="L292">
         <v>40</v>
       </c>
-      <c r="M292" s="2">
-        <v>5.6789398193359331</v>
+      <c r="M292">
+        <v>1.9367004394531193</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12950,8 +12945,8 @@
       <c r="L293">
         <v>40</v>
       </c>
-      <c r="M293" s="2">
-        <v>23.458213806152202</v>
+      <c r="M293">
+        <v>0.64579467773436083</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12991,8 +12986,8 @@
       <c r="L294">
         <v>175</v>
       </c>
-      <c r="M294" s="2">
-        <v>9.4653625488280682</v>
+      <c r="M294">
+        <v>1.1391433715820001</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -13032,8 +13027,8 @@
       <c r="L295">
         <v>40</v>
       </c>
-      <c r="M295" s="2">
-        <v>1.0934417724609204</v>
+      <c r="M295">
+        <v>4.0409484863281193</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -13073,8 +13068,8 @@
       <c r="L296">
         <v>175</v>
       </c>
-      <c r="M296" s="2">
-        <v>1.6733276367187186</v>
+      <c r="M296">
+        <v>4.9370605468750002</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -13114,8 +13109,8 @@
       <c r="L297">
         <v>40</v>
       </c>
-      <c r="M297" s="2">
-        <v>0.67611083984371878</v>
+      <c r="M297">
+        <v>3.3679885864257613</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -13155,8 +13150,8 @@
       <c r="L298">
         <v>40</v>
       </c>
-      <c r="M298" s="2">
-        <v>1.124097188313802</v>
+      <c r="M298">
+        <v>3.5954193115234006</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -13196,8 +13191,8 @@
       <c r="L299">
         <v>40</v>
       </c>
-      <c r="M299" s="2">
-        <v>3.453323364257801</v>
+      <c r="M299">
+        <v>5.9912597656250002</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -13237,8 +13232,8 @@
       <c r="L300">
         <v>175</v>
       </c>
-      <c r="M300" s="2">
-        <v>26.825920104980398</v>
+      <c r="M300">
+        <v>1.1334808349609204</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -13278,8 +13273,8 @@
       <c r="L301">
         <v>175</v>
       </c>
-      <c r="M301" s="2">
-        <v>14.076347351074205</v>
+      <c r="M301">
+        <v>1.269992065429679</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -13319,8 +13314,8 @@
       <c r="L302">
         <v>175</v>
       </c>
-      <c r="M302" s="2">
-        <v>10.105148315429602</v>
+      <c r="M302">
+        <v>0.98976898193355967</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13360,8 +13355,8 @@
       <c r="L303">
         <v>175</v>
       </c>
-      <c r="M303" s="2">
-        <v>8.9503479003906019</v>
+      <c r="M303">
+        <v>3.7251617431640396</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13401,8 +13396,8 @@
       <c r="L304">
         <v>40</v>
       </c>
-      <c r="M304" s="2">
-        <v>6.3595062255859203</v>
+      <c r="M304">
+        <v>3.3639770507812385</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13442,8 +13437,8 @@
       <c r="L305">
         <v>40</v>
       </c>
-      <c r="M305" s="2">
-        <v>4.3770812988281191</v>
+      <c r="M305">
+        <v>3.3661788940429602</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13483,8 +13478,8 @@
       <c r="L306">
         <v>40</v>
       </c>
-      <c r="M306" s="2">
-        <v>6.7746556599934662</v>
+      <c r="M306">
+        <v>2.4239700317382811</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13524,8 +13519,8 @@
       <c r="L307">
         <v>175</v>
       </c>
-      <c r="M307" s="2">
-        <v>3.3687881469726393</v>
+      <c r="M307">
+        <v>2.5927642822265597</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13565,8 +13560,8 @@
       <c r="L308">
         <v>40</v>
       </c>
-      <c r="M308" s="2">
-        <v>6.9699859619140057</v>
+      <c r="M308">
+        <v>1.1976242065429603</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13606,8 +13601,8 @@
       <c r="L309">
         <v>175</v>
       </c>
-      <c r="M309" s="2">
-        <v>4.6927642822264062</v>
+      <c r="M309">
+        <v>1.2696441650390398</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13647,8 +13642,8 @@
       <c r="L310">
         <v>175</v>
       </c>
-      <c r="M310" s="2">
-        <v>0.67552947998044033</v>
+      <c r="M310">
+        <v>5.7481506347655991</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13688,8 +13683,8 @@
       <c r="L311">
         <v>40</v>
       </c>
-      <c r="M311" s="2">
-        <v>1.3399531046549338</v>
+      <c r="M311">
+        <v>3.8037307739257615</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13729,8 +13724,8 @@
       <c r="L312">
         <v>175</v>
       </c>
-      <c r="M312" s="2">
-        <v>3.0428009033201988</v>
+      <c r="M312">
+        <v>1.1351058959960796</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13770,8 +13765,8 @@
       <c r="L313">
         <v>40</v>
       </c>
-      <c r="M313" s="2">
-        <v>4.3753763834635322</v>
+      <c r="M313">
+        <v>4.1841125488281197</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13811,8 +13806,8 @@
       <c r="L314">
         <v>175</v>
       </c>
-      <c r="M314" s="2">
-        <v>2.2351730346679601</v>
+      <c r="M314">
+        <v>5.24012908935544</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13852,8 +13847,8 @@
       <c r="L315">
         <v>175</v>
       </c>
-      <c r="M315" s="2">
-        <v>3.728706359863267</v>
+      <c r="M315">
+        <v>1.6325973510741989</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -13893,8 +13888,8 @@
       <c r="L316">
         <v>175</v>
       </c>
-      <c r="M316" s="2">
-        <v>8.9313354492187216</v>
+      <c r="M316">
+        <v>5.2374328613281191</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
@@ -13934,8 +13929,8 @@
       <c r="L317">
         <v>40</v>
       </c>
-      <c r="M317" s="2">
-        <v>6.7012151082356679</v>
+      <c r="M317">
+        <v>4.1856491088867189</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
@@ -13975,8 +13970,8 @@
       <c r="L318">
         <v>175</v>
       </c>
-      <c r="M318" s="2">
-        <v>5.072039286295535</v>
+      <c r="M318">
+        <v>5.0130325317382809</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -14016,8 +14011,8 @@
       <c r="L319">
         <v>175</v>
       </c>
-      <c r="M319" s="2">
-        <v>2.8787206013997348</v>
+      <c r="M319">
+        <v>2.2336456298828011</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -14057,8 +14052,8 @@
       <c r="L320">
         <v>40</v>
       </c>
-      <c r="M320" s="2">
-        <v>2.2197596232096024</v>
+      <c r="M320">
+        <v>2.0166946411132813</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -14098,8 +14093,8 @@
       <c r="L321">
         <v>40</v>
       </c>
-      <c r="M321" s="2">
-        <v>6.6802266438801992</v>
+      <c r="M321">
+        <v>5.0120498657226396</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -14139,8 +14134,8 @@
       <c r="L322">
         <v>175</v>
       </c>
-      <c r="M322" s="2">
-        <v>8.9349136352538689</v>
+      <c r="M322">
+        <v>3.595599365234361</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -14180,8 +14175,8 @@
       <c r="L323">
         <v>175</v>
       </c>
-      <c r="M323" s="2">
-        <v>20.934043884277202</v>
+      <c r="M323">
+        <v>0.37981872558592045</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -14221,8 +14216,8 @@
       <c r="L324">
         <v>175</v>
       </c>
-      <c r="M324" s="2">
-        <v>12.061599731445199</v>
+      <c r="M324">
+        <v>0.54324645996092047</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -14262,8 +14257,8 @@
       <c r="L325">
         <v>175</v>
       </c>
-      <c r="M325" s="2">
-        <v>2.72229003906248</v>
+      <c r="M325">
+        <v>3.4042404174804402</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -14303,8 +14298,8 @@
       <c r="L326">
         <v>40</v>
       </c>
-      <c r="M326" s="2">
-        <v>6.044677734375</v>
+      <c r="M326">
+        <v>0.58223724365232099</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -14344,8 +14339,8 @@
       <c r="L327">
         <v>40</v>
       </c>
-      <c r="M327" s="2">
-        <v>6.3589935302733949</v>
+      <c r="M327">
+        <v>0.68207550048828125</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14385,8 +14380,8 @@
       <c r="L328">
         <v>40</v>
       </c>
-      <c r="M328" s="2">
-        <v>1.5662256876627321</v>
+      <c r="M328">
+        <v>3.402587890625</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14426,8 +14421,8 @@
       <c r="L329">
         <v>175</v>
       </c>
-      <c r="M329" s="2">
-        <v>0.87540435791011928</v>
+      <c r="M329">
+        <v>6.3148208618164006</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14467,8 +14462,8 @@
       <c r="L330">
         <v>40</v>
       </c>
-      <c r="M330" s="2">
-        <v>5.9960708618164063</v>
+      <c r="M330">
+        <v>1.2609344482421592</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14508,8 +14503,8 @@
       <c r="L331">
         <v>40</v>
       </c>
-      <c r="M331" s="2">
-        <v>5.3658386230468409</v>
+      <c r="M331">
+        <v>6.6557678222655996</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14549,8 +14544,8 @@
       <c r="L332">
         <v>175</v>
       </c>
-      <c r="M332" s="2">
-        <v>2.0474395751952814</v>
+      <c r="M332">
+        <v>4.924501037597639</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14590,8 +14585,8 @@
       <c r="L333">
         <v>175</v>
       </c>
-      <c r="M333" s="2">
-        <v>17.049308776855398</v>
+      <c r="M333">
+        <v>0.50977478027340051</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14631,8 +14626,8 @@
       <c r="L334">
         <v>175</v>
       </c>
-      <c r="M334" s="2">
-        <v>3.3793614705403314</v>
+      <c r="M334">
+        <v>2.7904937744140397</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14672,8 +14667,8 @@
       <c r="L335">
         <v>40</v>
       </c>
-      <c r="M335" s="2">
-        <v>8.3730743408202777</v>
+      <c r="M335">
+        <v>8.3295989990234371</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14713,8 +14708,8 @@
       <c r="L336">
         <v>175</v>
       </c>
-      <c r="M336" s="2">
-        <v>4.696310424804679</v>
+      <c r="M336">
+        <v>5.7406127929687187</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14754,8 +14749,8 @@
       <c r="L337">
         <v>175</v>
       </c>
-      <c r="M337" s="2">
-        <v>13.612770080566406</v>
+      <c r="M337">
+        <v>0.51856689453123861</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14795,8 +14790,8 @@
       <c r="L338">
         <v>175</v>
       </c>
-      <c r="M338" s="2">
-        <v>8.9289398193357954</v>
+      <c r="M338">
+        <v>0.5104721069335596</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14836,8 +14831,8 @@
       <c r="L339">
         <v>40</v>
       </c>
-      <c r="M339" s="2">
-        <v>2.0311406453449998</v>
+      <c r="M339">
+        <v>1.7465530395507614</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14877,8 +14872,8 @@
       <c r="L340">
         <v>40</v>
       </c>
-      <c r="M340" s="2">
-        <v>4.0608596801755965</v>
+      <c r="M340">
+        <v>0.51705474853511935</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14918,8 +14913,8 @@
       <c r="L341">
         <v>40</v>
       </c>
-      <c r="M341" s="2">
-        <v>5.6730041503905966</v>
+      <c r="M341">
+        <v>1.0472015380859205</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -14959,8 +14954,8 @@
       <c r="L342">
         <v>40</v>
       </c>
-      <c r="M342" s="2">
-        <v>6.3097839355468039</v>
+      <c r="M342">
+        <v>0.64444580078123859</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
@@ -15000,8 +14995,8 @@
       <c r="L343">
         <v>40</v>
       </c>
-      <c r="M343" s="2">
-        <v>16.361389160156193</v>
+      <c r="M343">
+        <v>1.3928955078124801</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
@@ -15041,8 +15036,8 @@
       <c r="L344">
         <v>175</v>
       </c>
-      <c r="M344" s="2">
-        <v>26.764724731445199</v>
+      <c r="M344">
+        <v>1.1461532592773209</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -15082,8 +15077,8 @@
       <c r="L345">
         <v>175</v>
       </c>
-      <c r="M345" s="2">
-        <v>4.372576395670535</v>
+      <c r="M345">
+        <v>1.6337112426757614</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -15123,8 +15118,8 @@
       <c r="L346">
         <v>175</v>
       </c>
-      <c r="M346" s="2">
-        <v>3.0417953491210796</v>
+      <c r="M346">
+        <v>3.0365219116210795</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -15164,8 +15159,8 @@
       <c r="L347">
         <v>175</v>
       </c>
-      <c r="M347" s="2">
-        <v>1.4578119913736647</v>
+      <c r="M347">
+        <v>2.9655410766601191</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -15205,8 +15200,8 @@
       <c r="L348">
         <v>175</v>
       </c>
-      <c r="M348" s="2">
-        <v>30.193290710449205</v>
+      <c r="M348">
+        <v>1.2624603271484005</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -15246,8 +15241,8 @@
       <c r="L349">
         <v>175</v>
       </c>
-      <c r="M349" s="2">
-        <v>31.904205322265597</v>
+      <c r="M349">
+        <v>0.60860137939451986</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -15287,8 +15282,8 @@
       <c r="L350">
         <v>40</v>
       </c>
-      <c r="M350" s="2">
-        <v>6.9710922241210795</v>
+      <c r="M350">
+        <v>2.5501022338867188</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -15328,8 +15323,8 @@
       <c r="L351">
         <v>175</v>
       </c>
-      <c r="M351" s="2">
-        <v>13.608215332031193</v>
+      <c r="M351">
+        <v>1.3932678222655994</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -15369,8 +15364,8 @@
       <c r="L352">
         <v>40</v>
       </c>
-      <c r="M352" s="2">
-        <v>1.3483530680338021</v>
+      <c r="M352">
+        <v>1.3329330444335596</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15410,8 +15405,8 @@
       <c r="L353">
         <v>175</v>
       </c>
-      <c r="M353" s="2">
-        <v>1.3323730468749999</v>
+      <c r="M353">
+        <v>1.8993820190429602</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15451,8 +15446,8 @@
       <c r="L354">
         <v>175</v>
       </c>
-      <c r="M354" s="2">
-        <v>1.2416483561197349</v>
+      <c r="M354">
+        <v>3.6160369873046792</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15492,8 +15487,8 @@
       <c r="L355">
         <v>40</v>
       </c>
-      <c r="M355" s="2">
-        <v>0.90750885009759941</v>
+      <c r="M355">
+        <v>3.5927185058593607</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15533,8 +15528,8 @@
       <c r="L356">
         <v>175</v>
       </c>
-      <c r="M356" s="2">
-        <v>6.3866348266601323</v>
+      <c r="M356">
+        <v>5.0062652587890399</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15574,8 +15569,8 @@
       <c r="L357">
         <v>175</v>
       </c>
-      <c r="M357" s="2">
-        <v>3.448748779296841</v>
+      <c r="M357">
+        <v>5.4326522827148409</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15615,8 +15610,8 @@
       <c r="L358">
         <v>40</v>
       </c>
-      <c r="M358" s="2">
-        <v>26.817535400390597</v>
+      <c r="M358">
+        <v>1.2061828613281194</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15656,8 +15651,8 @@
       <c r="L359">
         <v>40</v>
       </c>
-      <c r="M359" s="2">
-        <v>19.061920166015597</v>
+      <c r="M359">
+        <v>1.2068771362304402</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15697,8 +15692,8 @@
       <c r="L360">
         <v>175</v>
       </c>
-      <c r="M360" s="2">
-        <v>17.042373657226406</v>
+      <c r="M360">
+        <v>1.0470397949218408</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15738,8 +15733,8 @@
       <c r="L361">
         <v>175</v>
       </c>
-      <c r="M361" s="2">
-        <v>30.489006042480398</v>
+      <c r="M361">
+        <v>0.74608612060544033</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15779,8 +15774,8 @@
       <c r="L362">
         <v>175</v>
       </c>
-      <c r="M362" s="2">
-        <v>4.6933532714843604</v>
+      <c r="M362">
+        <v>3.7154830932617187</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15820,8 +15815,8 @@
       <c r="L363">
         <v>175</v>
       </c>
-      <c r="M363" s="2">
-        <v>4.0629547119140401</v>
+      <c r="M363">
+        <v>5.7449310302734009</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15861,8 +15856,8 @@
       <c r="L364">
         <v>40</v>
       </c>
-      <c r="M364" s="2">
-        <v>20.218437194824205</v>
+      <c r="M364">
+        <v>1.0483840942382812</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15902,8 +15897,8 @@
       <c r="L365">
         <v>175</v>
       </c>
-      <c r="M365" s="2">
-        <v>6.7701212565103974</v>
+      <c r="M365">
+        <v>3.1418685913085596</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15943,8 +15938,8 @@
       <c r="L366">
         <v>175</v>
       </c>
-      <c r="M366" s="2">
-        <v>1.9137395222981344</v>
+      <c r="M366">
+        <v>2.2320114135741989</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15984,8 +15979,8 @@
       <c r="L367">
         <v>175</v>
       </c>
-      <c r="M367" s="2">
-        <v>2.126655578613267</v>
+      <c r="M367">
+        <v>5.3593444824218412</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -16025,8 +16020,8 @@
       <c r="L368">
         <v>175</v>
       </c>
-      <c r="M368" s="2">
-        <v>1.3403193155924005</v>
+      <c r="M368">
+        <v>1.822509765625</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
@@ -16066,8 +16061,8 @@
       <c r="L369">
         <v>175</v>
       </c>
-      <c r="M369" s="2">
-        <v>8.9290288289388027</v>
+      <c r="M369">
+        <v>2.9589584350585598</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
@@ -16107,8 +16102,8 @@
       <c r="L370">
         <v>175</v>
       </c>
-      <c r="M370" s="2">
-        <v>26.787078857421804</v>
+      <c r="M370">
+        <v>0.68195037841796025</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -16148,8 +16143,8 @@
       <c r="L371">
         <v>175</v>
       </c>
-      <c r="M371" s="2">
-        <v>14.063613891601406</v>
+      <c r="M371">
+        <v>1.2628967285155994</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -16189,8 +16184,8 @@
       <c r="L372">
         <v>40</v>
       </c>
-      <c r="M372" s="2">
-        <v>14.886500040690066</v>
+      <c r="M372">
+        <v>2.0215118408202812</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -16230,8 +16225,8 @@
       <c r="L373">
         <v>40</v>
       </c>
-      <c r="M373" s="2">
-        <v>44.661224365234204</v>
+      <c r="M373">
+        <v>1.197569274902321</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -16271,8 +16266,8 @@
       <c r="L374">
         <v>175</v>
       </c>
-      <c r="M374" s="2">
-        <v>10.155693054199199</v>
+      <c r="M374">
+        <v>5.0141525268554403</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -16312,8 +16307,8 @@
       <c r="L375">
         <v>175</v>
       </c>
-      <c r="M375" s="2">
-        <v>5.7409347534179602</v>
+      <c r="M375">
+        <v>5.2175048828124799</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -16353,8 +16348,8 @@
       <c r="L376">
         <v>40</v>
       </c>
-      <c r="M376" s="2">
-        <v>14.385732014973931</v>
+      <c r="M376">
+        <v>3.5955703735351192</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -16394,8 +16389,8 @@
       <c r="L377">
         <v>40</v>
       </c>
-      <c r="M377" s="2">
-        <v>18.934677124023395</v>
+      <c r="M377">
+        <v>0.50921478271484089</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16435,8 +16430,8 @@
       <c r="L378">
         <v>175</v>
       </c>
-      <c r="M378" s="2">
-        <v>33.365173339843594</v>
+      <c r="M378">
+        <v>1.0867553710937188</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16476,8 +16471,8 @@
       <c r="L379">
         <v>175</v>
       </c>
-      <c r="M379" s="2">
-        <v>3.3765304565429601</v>
+      <c r="M379">
+        <v>5.4572570800781195</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16517,8 +16512,8 @@
       <c r="L380">
         <v>175</v>
       </c>
-      <c r="M380" s="2">
-        <v>3.4124984741209943</v>
+      <c r="M380">
+        <v>1.2617355346679602</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16558,8 +16553,8 @@
       <c r="L381">
         <v>175</v>
       </c>
-      <c r="M381" s="2">
-        <v>0.67402648925780118</v>
+      <c r="M381">
+        <v>5.2364257812500004</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16599,8 +16594,8 @@
       <c r="L382">
         <v>175</v>
       </c>
-      <c r="M382" s="2">
-        <v>6.1010945638020644</v>
+      <c r="M382">
+        <v>2.41865997314452</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16640,8 +16635,8 @@
       <c r="L383">
         <v>40</v>
       </c>
-      <c r="M383" s="2">
-        <v>3.9975967407226394</v>
+      <c r="M383">
+        <v>8.3242401123046825</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16681,8 +16676,8 @@
       <c r="L384">
         <v>175</v>
       </c>
-      <c r="M384" s="2">
-        <v>5.6810379028320002</v>
+      <c r="M384">
+        <v>6.9696701049804402</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16722,8 +16717,8 @@
       <c r="L385">
         <v>175</v>
       </c>
-      <c r="M385" s="2">
-        <v>31.563789367675597</v>
+      <c r="M385">
+        <v>0.64442749023436074</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16763,8 +16758,8 @@
       <c r="L386">
         <v>40</v>
       </c>
-      <c r="M386" s="2">
-        <v>2.0306803385416665</v>
+      <c r="M386">
+        <v>1.553575134277321</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16804,8 +16799,8 @@
       <c r="L387">
         <v>175</v>
       </c>
-      <c r="M387" s="2">
-        <v>6.9709243774414063</v>
+      <c r="M387">
+        <v>0.44480438232419883</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16845,8 +16840,8 @@
       <c r="L388">
         <v>40</v>
       </c>
-      <c r="M388" s="2">
-        <v>3.3769149780272016</v>
+      <c r="M388">
+        <v>0.44462432861328127</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16886,8 +16881,8 @@
       <c r="L389">
         <v>40</v>
       </c>
-      <c r="M389" s="2">
-        <v>3.4099400838216005</v>
+      <c r="M389">
+        <v>3.5946533203124802</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16927,8 +16922,8 @@
       <c r="L390">
         <v>175</v>
       </c>
-      <c r="M390" s="2">
-        <v>2.4251968383788807</v>
+      <c r="M390">
+        <v>5.2290328979491987</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -16968,8 +16963,8 @@
       <c r="L391">
         <v>175</v>
       </c>
-      <c r="M391" s="2">
-        <v>3.9917831420898411</v>
+      <c r="M391">
+        <v>5.6725891113281195</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -17009,8 +17004,8 @@
       <c r="L392">
         <v>175</v>
       </c>
-      <c r="M392" s="2">
-        <v>11.084983825683594</v>
+      <c r="M392">
+        <v>0.80641937255855967</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -17050,8 +17045,8 @@
       <c r="L393">
         <v>175</v>
       </c>
-      <c r="M393" s="2">
-        <v>9.1251754760742045</v>
+      <c r="M393">
+        <v>0.54473114013671875</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -17091,8 +17086,8 @@
       <c r="L394">
         <v>40</v>
       </c>
-      <c r="M394" s="2">
-        <v>5.74086151123044</v>
+      <c r="M394">
+        <v>6.6552703857421589</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
@@ -17132,8 +17127,8 @@
       <c r="L395">
         <v>40</v>
       </c>
-      <c r="M395" s="2">
-        <v>1.2699996948241989</v>
+      <c r="M395">
+        <v>3.227375793457</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
@@ -17173,8 +17168,8 @@
       <c r="L396">
         <v>175</v>
       </c>
-      <c r="M396" s="2">
-        <v>6.9694366455077983</v>
+      <c r="M396">
+        <v>0.68179779052732103</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -17214,8 +17209,8 @@
       <c r="L397">
         <v>40</v>
       </c>
-      <c r="M397" s="2">
-        <v>1.1224899291991999</v>
+      <c r="M397">
+        <v>1.3337173461914005</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -17255,8 +17250,8 @@
       <c r="L398">
         <v>175</v>
       </c>
-      <c r="M398" s="2">
-        <v>2.1025721232096024</v>
+      <c r="M398">
+        <v>2.2340805053710797</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -17296,8 +17291,8 @@
       <c r="L399">
         <v>40</v>
       </c>
-      <c r="M399" s="2">
-        <v>5.9879226684570028</v>
+      <c r="M399">
+        <v>1.2688049316405994</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
@@ -17337,8 +17332,8 @@
       <c r="L400">
         <v>175</v>
       </c>
-      <c r="M400" s="2">
-        <v>6.091814676920535</v>
+      <c r="M400">
+        <v>3.81172637939452</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
@@ -17378,8 +17373,8 @@
       <c r="L401">
         <v>175</v>
       </c>
-      <c r="M401" s="2">
-        <v>5.6733449300130019</v>
+      <c r="M401">
+        <v>1.5547866821288807</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
@@ -17419,8 +17414,8 @@
       <c r="L402">
         <v>175</v>
       </c>
-      <c r="M402" s="2">
-        <v>16.884361267089801</v>
+      <c r="M402">
+        <v>0.7452316284179602</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -17460,8 +17455,8 @@
       <c r="L403">
         <v>40</v>
       </c>
-      <c r="M403" s="2">
-        <v>1.7295074462890399</v>
+      <c r="M403">
+        <v>6.9714309692382814</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -17501,8 +17496,8 @@
       <c r="L404">
         <v>175</v>
       </c>
-      <c r="M404" s="2">
-        <v>2.3265279134114016</v>
+      <c r="M404">
+        <v>3.6152069091796788</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
@@ -17542,8 +17537,8 @@
       <c r="L405">
         <v>175</v>
       </c>
-      <c r="M405" s="2">
-        <v>1.1357406616210795</v>
+      <c r="M405">
+        <v>8.3489501953124776</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
@@ -17583,8 +17578,8 @@
       <c r="L406">
         <v>175</v>
       </c>
-      <c r="M406" s="2">
-        <v>3.3785552978514062</v>
+      <c r="M406">
+        <v>1.7301910400390397</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -17624,8 +17619,8 @@
       <c r="L407">
         <v>175</v>
       </c>
-      <c r="M407" s="2">
-        <v>0.60839385986328121</v>
+      <c r="M407">
+        <v>6.3536239624023212</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
@@ -17665,8 +17660,8 @@
       <c r="L408">
         <v>40</v>
       </c>
-      <c r="M408" s="2">
-        <v>3.4495239257812385</v>
+      <c r="M408">
+        <v>5.2168228149414002</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -17706,8 +17701,8 @@
       <c r="L409">
         <v>175</v>
       </c>
-      <c r="M409" s="2">
-        <v>5.3611724853515597</v>
+      <c r="M409">
+        <v>2.7224899291991989</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -17747,8 +17742,8 @@
       <c r="L410">
         <v>175</v>
       </c>
-      <c r="M410" s="2">
-        <v>29.949569702148395</v>
+      <c r="M410">
+        <v>0.44499053955076134</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -17788,8 +17783,8 @@
       <c r="L411">
         <v>175</v>
       </c>
-      <c r="M411" s="2">
-        <v>6.6509704589842045</v>
+      <c r="M411">
+        <v>0.64554443359371871</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
@@ -17829,8 +17824,8 @@
       <c r="L412">
         <v>40</v>
       </c>
-      <c r="M412" s="2">
-        <v>1.3461456298827983</v>
+      <c r="M412">
+        <v>1.1394592285155993</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -17870,8 +17865,8 @@
       <c r="L413">
         <v>40</v>
       </c>
-      <c r="M413" s="2">
-        <v>5.9833526611327983</v>
+      <c r="M413">
+        <v>1.7283416748046789</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -17911,8 +17906,8 @@
       <c r="L414">
         <v>175</v>
       </c>
-      <c r="M414" s="2">
-        <v>6.3074035644530682</v>
+      <c r="M414">
+        <v>1.5519973754882812</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -17952,8 +17947,8 @@
       <c r="L415">
         <v>40</v>
       </c>
-      <c r="M415" s="2">
-        <v>3.6946156819661318</v>
+      <c r="M415">
+        <v>4.1824279785155998</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
@@ -17993,8 +17988,8 @@
       <c r="L416">
         <v>40</v>
       </c>
-      <c r="M416" s="2">
-        <v>4.0600860595702812</v>
+      <c r="M416">
+        <v>5.9957565307617191</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
@@ -18034,8 +18029,8 @@
       <c r="L417">
         <v>40</v>
       </c>
-      <c r="M417" s="2">
-        <v>8.6330490112303977</v>
+      <c r="M417">
+        <v>1.1483062744140398</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
@@ -18075,8 +18070,8 @@
       <c r="L418">
         <v>175</v>
       </c>
-      <c r="M418" s="2">
-        <v>0.74453277587888067</v>
+      <c r="M418">
+        <v>4.9491699218749998</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
@@ -18116,8 +18111,8 @@
       <c r="L419">
         <v>40</v>
       </c>
-      <c r="M419" s="2">
-        <v>3.6946105957029971</v>
+      <c r="M419">
+        <v>1.2603958129882813</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
@@ -18157,8 +18152,8 @@
       <c r="L420">
         <v>175</v>
       </c>
-      <c r="M420" s="2">
-        <v>6.6667785644530682</v>
+      <c r="M420">
+        <v>3.5917327880859204</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
@@ -18198,8 +18193,8 @@
       <c r="L421">
         <v>40</v>
       </c>
-      <c r="M421" s="2">
-        <v>19.045761108398395</v>
+      <c r="M421">
+        <v>0.58234100341796025</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
@@ -18239,8 +18234,8 @@
       <c r="L422">
         <v>40</v>
       </c>
-      <c r="M422" s="2">
-        <v>11.168998718261605</v>
+      <c r="M422">
+        <v>1.7287521362304403</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -18280,8 +18275,8 @@
       <c r="L423">
         <v>40</v>
       </c>
-      <c r="M423" s="2">
-        <v>2.4100631713867187</v>
+      <c r="M423">
+        <v>3.3642181396484006</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -18321,8 +18316,8 @@
       <c r="L424">
         <v>175</v>
       </c>
-      <c r="M424" s="2">
-        <v>2.0176071166991987</v>
+      <c r="M424">
+        <v>8.9277923583984382</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
@@ -18362,8 +18357,8 @@
       <c r="L425">
         <v>40</v>
       </c>
-      <c r="M425" s="2">
-        <v>6.7287317911783333</v>
+      <c r="M425">
+        <v>1.7464370727538807</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
@@ -18403,8 +18398,8 @@
       <c r="L426">
         <v>40</v>
       </c>
-      <c r="M426" s="2">
-        <v>9.4598999023437305</v>
+      <c r="M426">
+        <v>3.6199920654296789</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
@@ -18444,8 +18439,8 @@
       <c r="L427">
         <v>40</v>
       </c>
-      <c r="M427" s="2">
-        <v>28.367263793945199</v>
+      <c r="M427">
+        <v>0.58195800781248008</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
@@ -18485,8 +18480,8 @@
       <c r="L428">
         <v>40</v>
       </c>
-      <c r="M428" s="2">
-        <v>16.812332153320199</v>
+      <c r="M428">
+        <v>1.2632736206054402</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
@@ -18526,8 +18521,8 @@
       <c r="L429">
         <v>175</v>
       </c>
-      <c r="M429" s="2">
-        <v>2.1286748250325331</v>
+      <c r="M429">
+        <v>2.9669418334960795</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
@@ -18567,8 +18562,8 @@
       <c r="L430">
         <v>40</v>
       </c>
-      <c r="M430" s="2">
-        <v>1.1487533569335597</v>
+      <c r="M430">
+        <v>4.9402435302734009</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
@@ -18608,8 +18603,8 @@
       <c r="L431">
         <v>175</v>
       </c>
-      <c r="M431" s="2">
-        <v>0.73957519531248006</v>
+      <c r="M431">
+        <v>5.9879577636718411</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
@@ -18649,8 +18644,8 @@
       <c r="L432">
         <v>40</v>
       </c>
-      <c r="M432" s="2">
-        <v>2.7212371826170028</v>
+      <c r="M432">
+        <v>1.0473541259765597</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
@@ -18690,8 +18685,8 @@
       <c r="L433">
         <v>175</v>
       </c>
-      <c r="M433" s="2">
-        <v>5.1889816284179604</v>
+      <c r="M433">
+        <v>4.9460571289062383</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
@@ -18731,8 +18726,8 @@
       <c r="L434">
         <v>40</v>
       </c>
-      <c r="M434" s="2">
-        <v>2.4240234374999998</v>
+      <c r="M434">
+        <v>8.9308380126952791</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
@@ -18772,8 +18767,8 @@
       <c r="L435">
         <v>175</v>
       </c>
-      <c r="M435" s="2">
-        <v>19.974853515625</v>
+      <c r="M435">
+        <v>1.1964630126952813</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
@@ -18813,8 +18808,8 @@
       <c r="L436">
         <v>175</v>
       </c>
-      <c r="M436" s="2">
-        <v>19.051750183105398</v>
+      <c r="M436">
+        <v>0.98578948974607949</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18854,8 +18849,8 @@
       <c r="L437">
         <v>175</v>
       </c>
-      <c r="M437" s="2">
-        <v>3.4097518920898011</v>
+      <c r="M437">
+        <v>5.3599029541015595</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
@@ -18895,8 +18890,8 @@
       <c r="L438">
         <v>40</v>
       </c>
-      <c r="M438" s="2">
-        <v>18.955513000488196</v>
+      <c r="M438">
+        <v>1.1499084472655994</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
@@ -18936,8 +18931,8 @@
       <c r="L439">
         <v>40</v>
       </c>
-      <c r="M439" s="2">
-        <v>3.3775787353515341</v>
+      <c r="M439">
+        <v>2.4261505126952811</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
@@ -18977,8 +18972,8 @@
       <c r="L440">
         <v>175</v>
       </c>
-      <c r="M440" s="2">
-        <v>7.8144175211588021</v>
+      <c r="M440">
+        <v>1.9356872558593607</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
@@ -19018,8 +19013,8 @@
       <c r="L441">
         <v>175</v>
       </c>
-      <c r="M441" s="2">
-        <v>3.3769500732421589</v>
+      <c r="M441">
+        <v>5.4599288940429602</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -19059,8 +19054,8 @@
       <c r="L442">
         <v>40</v>
       </c>
-      <c r="M442" s="2">
-        <v>1.1477951049804402</v>
+      <c r="M442">
+        <v>3.3649139404296791</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
@@ -19100,8 +19095,8 @@
       <c r="L443">
         <v>40</v>
       </c>
-      <c r="M443" s="2">
-        <v>0.60827941894528126</v>
+      <c r="M443">
+        <v>4.0388381958007615</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
@@ -19141,8 +19136,8 @@
       <c r="L444">
         <v>175</v>
       </c>
-      <c r="M444" s="2">
-        <v>5.9885940551755965</v>
+      <c r="M444">
+        <v>0.44465637207028125</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
@@ -19182,8 +19177,8 @@
       <c r="L445">
         <v>175</v>
       </c>
-      <c r="M445" s="2">
-        <v>6.308540344238196</v>
+      <c r="M445">
+        <v>0.74472198486328123</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -19223,8 +19218,8 @@
       <c r="L446">
         <v>40</v>
       </c>
-      <c r="M446" s="2">
-        <v>8.3551534016926663</v>
+      <c r="M446">
+        <v>3.7847793579101192</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
@@ -19264,8 +19259,8 @@
       <c r="L447">
         <v>175</v>
       </c>
-      <c r="M447" s="2">
-        <v>8.3510386149088021</v>
+      <c r="M447">
+        <v>3.4484710693359206</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
@@ -19305,8 +19300,8 @@
       <c r="L448">
         <v>175</v>
       </c>
-      <c r="M448" s="2">
-        <v>2.2189895629882814</v>
+      <c r="M448">
+        <v>1.8982864379882813</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
@@ -19346,8 +19341,8 @@
       <c r="L449">
         <v>40</v>
       </c>
-      <c r="M449" s="2">
-        <v>6.0876800537109208</v>
+      <c r="M449">
+        <v>5.6651809692382811</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
@@ -19387,8 +19382,8 @@
       <c r="L450">
         <v>175</v>
       </c>
-      <c r="M450" s="2">
-        <v>4.0589035034179606</v>
+      <c r="M450">
+        <v>2.5928100585937188</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
@@ -19428,8 +19423,8 @@
       <c r="L451">
         <v>40</v>
       </c>
-      <c r="M451" s="2">
-        <v>6.7658920288085325</v>
+      <c r="M451">
+        <v>1.938218688964841</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
@@ -19469,8 +19464,8 @@
       <c r="L452">
         <v>175</v>
       </c>
-      <c r="M452" s="2">
-        <v>1.2066421508788807</v>
+      <c r="M452">
+        <v>5.7312042236328011</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
@@ -19510,8 +19505,8 @@
       <c r="L453">
         <v>40</v>
       </c>
-      <c r="M453" s="2">
-        <v>2.3234202067056677</v>
+      <c r="M453">
+        <v>2.7823348999023212</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
@@ -19551,8 +19546,8 @@
       <c r="L454">
         <v>40</v>
       </c>
-      <c r="M454" s="2">
-        <v>6.9681015014648011</v>
+      <c r="M454">
+        <v>0.50918579101559946</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
@@ -19592,8 +19587,8 @@
       <c r="L455">
         <v>40</v>
       </c>
-      <c r="M455" s="2">
-        <v>6.674143473307268</v>
+      <c r="M455">
+        <v>5.0111648559570003</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
@@ -19633,8 +19628,8 @@
       <c r="L456">
         <v>175</v>
       </c>
-      <c r="M456" s="2">
-        <v>19.130302429199205</v>
+      <c r="M456">
+        <v>0.50843811035155961</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
@@ -19674,8 +19669,8 @@
       <c r="L457">
         <v>175</v>
       </c>
-      <c r="M457" s="2">
-        <v>3.6529998779296791</v>
+      <c r="M457">
+        <v>3.4033645629882812</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
@@ -19715,8 +19710,8 @@
       <c r="L458">
         <v>40</v>
       </c>
-      <c r="M458" s="2">
-        <v>2.0449081420898407</v>
+      <c r="M458">
+        <v>8.9292358398437219</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
@@ -19756,8 +19751,8 @@
       <c r="L459">
         <v>40</v>
       </c>
-      <c r="M459" s="2">
-        <v>3.6957295735676658</v>
+      <c r="M459">
+        <v>3.4078247070312386</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
@@ -19797,8 +19792,8 @@
       <c r="L460">
         <v>40</v>
       </c>
-      <c r="M460" s="2">
-        <v>5.4576431274414006</v>
+      <c r="M460">
+        <v>2.7192123413085598</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
@@ -19838,8 +19833,8 @@
       <c r="L461">
         <v>175</v>
       </c>
-      <c r="M461" s="2">
-        <v>11.118542989094999</v>
+      <c r="M461">
+        <v>3.6168365478515598</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
@@ -19879,8 +19874,8 @@
       <c r="L462">
         <v>175</v>
       </c>
-      <c r="M462" s="2">
-        <v>10.576985677083334</v>
+      <c r="M462">
+        <v>2.0405944824218407</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
@@ -19920,8 +19915,8 @@
       <c r="L463">
         <v>40</v>
       </c>
-      <c r="M463" s="2">
-        <v>28.357589721679602</v>
+      <c r="M463">
+        <v>1.7863342285155994</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
@@ -19961,8 +19956,8 @@
       <c r="L464">
         <v>40</v>
       </c>
-      <c r="M464" s="2">
-        <v>16.836547851562401</v>
+      <c r="M464">
+        <v>0.74560852050780113</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
@@ -20002,8 +19997,8 @@
       <c r="L465">
         <v>40</v>
       </c>
-      <c r="M465" s="2">
-        <v>5.7444000244140057</v>
+      <c r="M465">
+        <v>0.67278289794919888</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
@@ -20043,8 +20038,8 @@
       <c r="L466">
         <v>40</v>
       </c>
-      <c r="M466" s="2">
-        <v>0.81295318603511935</v>
+      <c r="M466">
+        <v>2.5882873535155992</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
@@ -20084,8 +20079,8 @@
       <c r="L467">
         <v>40</v>
       </c>
-      <c r="M467" s="2">
-        <v>8.9414164225259984</v>
+      <c r="M467">
+        <v>1.1381484985351193</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
@@ -20125,8 +20120,8 @@
       <c r="L468">
         <v>175</v>
       </c>
-      <c r="M468" s="2">
-        <v>26.788856506347599</v>
+      <c r="M468">
+        <v>0.92666015624999998</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
@@ -20166,8 +20161,8 @@
       <c r="L469">
         <v>175</v>
       </c>
-      <c r="M469" s="2">
-        <v>19.060791015625</v>
+      <c r="M469">
+        <v>0.92914886474607949</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
@@ -20207,8 +20202,8 @@
       <c r="L470">
         <v>175</v>
       </c>
-      <c r="M470" s="2">
-        <v>4.0377909342447351</v>
+      <c r="M470">
+        <v>1.5307601928710795</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
@@ -20248,8 +20243,8 @@
       <c r="L471">
         <v>40</v>
       </c>
-      <c r="M471" s="2">
-        <v>5.9916330973306673</v>
+      <c r="M471">
+        <v>1.824055480957</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
@@ -20289,8 +20284,8 @@
       <c r="L472">
         <v>40</v>
       </c>
-      <c r="M472" s="2">
-        <v>5.6773513793945201</v>
+      <c r="M472">
+        <v>3.3704086303710796</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
@@ -20330,8 +20325,8 @@
       <c r="L473">
         <v>40</v>
       </c>
-      <c r="M473" s="2">
-        <v>3.3775344848632813</v>
+      <c r="M473">
+        <v>1.897067260742159</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
@@ -20371,8 +20366,8 @@
       <c r="L474">
         <v>40</v>
       </c>
-      <c r="M474" s="2">
-        <v>16.837776184082003</v>
+      <c r="M474">
+        <v>0.51031646728511926</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
@@ -20412,8 +20407,8 @@
       <c r="L475">
         <v>40</v>
       </c>
-      <c r="M475" s="2">
-        <v>0.60826263427732097</v>
+      <c r="M475">
+        <v>1.897004699707</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
@@ -20453,8 +20448,8 @@
       <c r="L476">
         <v>40</v>
       </c>
-      <c r="M476" s="2">
-        <v>25.050003051757798</v>
+      <c r="M476">
+        <v>0.80861206054684087</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
@@ -20494,8 +20489,8 @@
       <c r="L477">
         <v>40</v>
       </c>
-      <c r="M477" s="2">
-        <v>18.262428283691406</v>
+      <c r="M477">
+        <v>1.6651245117187188</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
@@ -20535,8 +20530,8 @@
       <c r="L478">
         <v>175</v>
       </c>
-      <c r="M478" s="2">
-        <v>3.8087188720702811</v>
+      <c r="M478">
+        <v>5.23757171630856</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
@@ -20576,8 +20571,8 @@
       <c r="L479">
         <v>40</v>
       </c>
-      <c r="M479" s="2">
-        <v>14.060356140136605</v>
+      <c r="M479">
+        <v>1.1974563598632813</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
@@ -20617,8 +20612,8 @@
       <c r="L480">
         <v>40</v>
       </c>
-      <c r="M480" s="2">
-        <v>2.2332290649414004</v>
+      <c r="M480">
+        <v>2.5458328247069999</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
@@ -20658,8 +20653,8 @@
       <c r="L481">
         <v>40</v>
       </c>
-      <c r="M481" s="2">
-        <v>1.8244705200195199</v>
+      <c r="M481">
+        <v>6.9701156616210795</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
@@ -20699,8 +20694,8 @@
       <c r="L482">
         <v>175</v>
       </c>
-      <c r="M482" s="2">
-        <v>6.0337921142578015</v>
+      <c r="M482">
+        <v>2.7228012084960795</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
@@ -20740,8 +20735,8 @@
       <c r="L483">
         <v>175</v>
       </c>
-      <c r="M483" s="2">
-        <v>16.818344116210795</v>
+      <c r="M483">
+        <v>1.6675659179687188</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
@@ -20781,8 +20776,8 @@
       <c r="L484">
         <v>175</v>
       </c>
-      <c r="M484" s="2">
-        <v>3.041159057617159</v>
+      <c r="M484">
+        <v>3.7209793090819998</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
@@ -20822,8 +20817,8 @@
       <c r="L485">
         <v>40</v>
       </c>
-      <c r="M485" s="2">
-        <v>29.936004638671804</v>
+      <c r="M485">
+        <v>0.58170013427732103</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
@@ -20863,8 +20858,8 @@
       <c r="L486">
         <v>175</v>
       </c>
-      <c r="M486" s="2">
-        <v>2.1151911417642659</v>
+      <c r="M486">
+        <v>1.9374465942382813</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
@@ -20904,8 +20899,8 @@
       <c r="L487">
         <v>175</v>
       </c>
-      <c r="M487" s="2">
-        <v>5.7419026692708002</v>
+      <c r="M487">
+        <v>1.3335952758788807</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
@@ -20945,8 +20940,8 @@
       <c r="L488">
         <v>175</v>
       </c>
-      <c r="M488" s="2">
-        <v>18.107482910156193</v>
+      <c r="M488">
+        <v>0.60845947265623868</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
@@ -20986,8 +20981,8 @@
       <c r="L489">
         <v>40</v>
       </c>
-      <c r="M489" s="2">
-        <v>8.3484013875325331</v>
+      <c r="M489">
+        <v>1.3335693359374801</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
@@ -21027,8 +21022,8 @@
       <c r="L490">
         <v>40</v>
       </c>
-      <c r="M490" s="2">
-        <v>10.225685119628807</v>
+      <c r="M490">
+        <v>1.3939300537109205</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -21068,8 +21063,8 @@
       <c r="L491">
         <v>175</v>
       </c>
-      <c r="M491" s="2">
-        <v>20.902793884277202</v>
+      <c r="M491">
+        <v>0.68177947998044031</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
@@ -21109,8 +21104,8 @@
       <c r="L492">
         <v>175</v>
       </c>
-      <c r="M492" s="2">
-        <v>17.021278381347599</v>
+      <c r="M492">
+        <v>0.54427795410155966</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
@@ -21150,8 +21145,8 @@
       <c r="L493">
         <v>40</v>
       </c>
-      <c r="M493" s="2">
-        <v>31.888481140136605</v>
+      <c r="M493">
+        <v>0.44441375732419885</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
@@ -21191,8 +21186,8 @@
       <c r="L494">
         <v>175</v>
       </c>
-      <c r="M494" s="2">
-        <v>3.3679061889648407</v>
+      <c r="M494">
+        <v>5.2235702514648406</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
@@ -21232,8 +21227,8 @@
       <c r="L495">
         <v>175</v>
       </c>
-      <c r="M495" s="2">
-        <v>1.2757522583007614</v>
+      <c r="M495">
+        <v>2.5492889404296788</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -21273,8 +21268,8 @@
       <c r="L496">
         <v>40</v>
       </c>
-      <c r="M496" s="2">
-        <v>1.1371663411458002</v>
+      <c r="M496">
+        <v>2.2310546874999999</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -21314,8 +21309,8 @@
       <c r="L497">
         <v>175</v>
       </c>
-      <c r="M497" s="2">
-        <v>12.055267333984204</v>
+      <c r="M497">
+        <v>0.58195190429684085</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
@@ -21355,8 +21350,8 @@
       <c r="L498">
         <v>40</v>
       </c>
-      <c r="M498" s="2">
-        <v>30.220848083495994</v>
+      <c r="M498">
+        <v>0.60858612060544037</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
@@ -21396,8 +21391,8 @@
       <c r="L499">
         <v>175</v>
       </c>
-      <c r="M499" s="2">
-        <v>9.5742289225259984</v>
+      <c r="M499">
+        <v>3.8106353759765597</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
@@ -21437,8 +21432,8 @@
       <c r="L500">
         <v>40</v>
       </c>
-      <c r="M500" s="2">
-        <v>5.614707946777334</v>
+      <c r="M500">
+        <v>3.4455169677734006</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
@@ -21478,8 +21473,8 @@
       <c r="L501">
         <v>175</v>
       </c>
-      <c r="M501" s="2">
-        <v>4.0186553955078015</v>
+      <c r="M501">
+        <v>4.9212860107421594</v>
       </c>
     </row>
   </sheetData>

--- a/2.5D_Thermal_lidless.xlsx
+++ b/2.5D_Thermal_lidless.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uottawa-my.sharepoint.com/personal/mrafiee_uottawa_ca/Documents/1-Moh/Teaching &amp; Workshops/Electronic pakcaging and manufacturing/Projects/2025 Projects/teams/2.5D/updated data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bitopibhowmik/Documents/School/Packaging/2.5D packaging project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{40DA1224-6585-4A94-886D-5AF60FACFF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75F80941-AF75-4FB5-B02A-AE43DDC4324D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCAD401-FDA8-EF4E-AE6F-CC00AD4B5969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.5D Thermal Lidless" sheetId="1" r:id="rId1"/>
@@ -918,25 +918,25 @@
   <dimension ref="A1:M501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>6.309083557128881</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>1.1988143920898409</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>2.5439407348632814</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>2.5939682006835598</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>2.223776245117159</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>4.179258728027321</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>4.0425537109374803</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>0.58171997070311932</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>5.2386871337890399</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>4.0357513427734002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>1.0479660034179603</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>3.1302261352538805</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.1</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>6.9651535034179606</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.1</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>1.6329895019531193</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>1.6704559326171591</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>6.308917236328119</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>5.3475769042968411</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>2.2340576171874802</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.1</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>8.6295318603515625</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.1</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>1.3334762573241989</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3.8133163452148411</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>2.72330780029296</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>1.0470809936523211</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.1</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>6.9672500610351191</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.1</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1.8254333496093609</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0.5821868896484006</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0.68173370361328123</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.1</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>2.7234588623046792</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.1</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0.54357757568355969</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.125</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1.1337127685546791</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.125</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>2.7846374511718408</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.125</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>3.041197204589841</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.125</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>5.3651901245117184</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.125</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>3.5926422119140398</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.125</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>1.7846908569335596</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.125</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>1.3931060791015597</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.125</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1.1399261474609204</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.125</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>1.3323043823241989</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.125</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>8.3616241455078004</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.125</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>1.271096801757801</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.125</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1.528952026367159</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.125</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>6.9636779785155998</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.125</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>4.1865310668945197</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.125</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>1.2685043334960795</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.125</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>8.6397583007812386</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.125</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>0.60854492187499998</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.125</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>2.7216812133788806</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.125</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>2.2353378295898407</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.125</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>1.8253433227538807</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.125</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>2.9012283325195201</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.125</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>6.9677017211914007</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.125</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>4.6526306152343606</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.125</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>1.1346496582031194</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.125</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>6.6581344604491992</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.15</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>3.2273529052734005</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.15</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>6.0466659545898409</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.15</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>8.6492553710937212</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.15</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>4.1810058593750004</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.15</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0.58161163330076138</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.15</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>8.3603179931640401</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.15</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>6.9614929199218407</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.15</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>3.8167892456054404</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.15</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1.3940444946288806</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.15</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>2.9111251831054403</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.15</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0.68076324462888071</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.15</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>0.58051452636715906</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.15</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>1.6723281860351193</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.15</v>
       </c>
@@ -3762,10 +3762,10 @@
         <v>40</v>
       </c>
       <c r="M69">
-        <v>1.7858352661132813</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.7858352661132812</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.15</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>4.0006713867187189</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.15</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>1.1483139038085597</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.15</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>1.9319763183593608</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.15</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>0.38001708984371874</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.15</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>3.9908142089843608</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.15</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>1.5287094116210795</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.15</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>1.5296905517578012</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.15</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0.5445892333984006</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.15</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>1.6725524902343607</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.15</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1.8987564086914006</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.15</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1.5562042236328011</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.15</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>5.443928527832</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.1</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>3.1429183959960794</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.1</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>2.0407760620117186</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.1</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0.9874191284179602</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.1</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>3.4093383789062388</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.1</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>1.1487609863281194</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.1</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>6.96826171875</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.1</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0.98440551757811934</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.1</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>3.6210189819335596</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.1</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>1.3306549072265597</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.1</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>3.4398773193359204</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.1</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>2.7210098266601195</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.1</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0.98788909912107958</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.1</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>2.2360809326171589</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.1</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>3.7853851318359206</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.1</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>5.668397521972639</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.1</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>1.6722778320312386</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.1</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>2.2334548950195199</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.1</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1.2077804565429602</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.1</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>0.64604187011715908</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.1</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>0.37978973388671877</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.1</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>1.2691360473632813</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.1</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>0.44453735351559942</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.1</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>6.0448135375976388</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.1</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>3.5898757934569998</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.1</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>2.0472686767578012</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.1</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>3.4114456176757613</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.1</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>1.6339050292968409</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.1</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>3.6234115600585595</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.1</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>1.3303359985351193</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.1</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>0.64636840820311936</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.1</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>1.1348632812499999</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.1</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>5.1771240234374805</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.125</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>3.4434524536132813</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.125</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>1.5544769287109204</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.125</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>3.8012481689452811</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.125</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>1.8262466430664006</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.125</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>2.0199676513671592</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.125</v>
       </c>
@@ -5812,10 +5812,10 @@
         <v>175</v>
       </c>
       <c r="M119">
-        <v>1.6334915161132813</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.6334915161132812</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.125</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>3.2696960449218411</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.125</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>5.3525253295898407</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.125</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0.98581848144528128</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.125</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>1.3335830688476391</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.125</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>1.8952667236328011</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.125</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>1.1983093261718409</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.125</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>5.6800415039062386</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.125</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>3.5972167968750002</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.125</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0.6800872802734006</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.125</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>3.4487152099609206</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.125</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>3.5968841552734006</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.125</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>5.3567779541015597</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.125</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>5.352783203125</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.125</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1.7871383666991989</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.125</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>0.98541107177732101</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.125</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>5.4506607055664009</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.125</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>8.6386566162109197</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.125</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0.68195800781248006</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.125</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>1.5536849975585596</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.125</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>3.6208389282226392</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.125</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>1.9381622314452813</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.125</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>1.8264434814452812</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.125</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>5.9839126586914002</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.125</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>2.0414367675781193</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.125</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0.80798492431640057</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.125</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>5.1690612792968409</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.15</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>5.684161376953119</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.15</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>3.3704345703124803</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.15</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>3.3672760009765597</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.15</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>0.60754852294919881</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.15</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>4.042118835449199</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.15</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>1.1376358032226392</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.15</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>2.0197067260741988</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.15</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>5.0159515380859201</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.15</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>4.6506225585937191</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.15</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>1.937521362304679</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.15</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>0.92734832763671871</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.15</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>3.4445480346679602</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.15</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>0.80593414306640054</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.15</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>2.903341674804679</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.15</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>2.042379760742159</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.15</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>2.5894134521484005</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.15</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>0.58049163818355964</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.15</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>1.1470123291015597</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.15</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>3.6157257080078011</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.15</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>3.4387008666991989</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.15</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>1.5275512695312385</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.15</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>2.7895370483398407</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.15</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>2.2251464843750002</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.15</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>6.0013549804687187</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.15</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>3.7196975708007614</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.15</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>0.98502655029296027</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.15</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>2.546467590332</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.15</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>1.7869934082031194</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.15</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>1.5536590576171592</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.15</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>1.6668975830078012</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.1</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>1.0871917724609204</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.1</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>4.6289138793945197</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.1</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>3.7847549438476391</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.1</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>6.3532226562499998</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.1</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>1.1343948364257614</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.1</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>0.37983856201171873</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.1</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>0.44392242431640055</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.1</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>3.2744277954101193</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.1</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>2.5469650268554402</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.1</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>0.37960052490232099</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.1</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>5.7441513061523208</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.1</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>2.5910507202148407</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.1</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>5.6794219970702811</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.1</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>5.1765716552734009</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.1</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>0.92631225585936083</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.1</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>3.445452880859361</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.1</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>2.9088714599609204</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.1</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>2.4193771362304402</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.1</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>1.2695663452148409</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.1</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>1.7854354858398409</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.1</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>1.8990325927734006</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.1</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>4.6362991333007617</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.1</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1.1355422973632812</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.1</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>1.1358383178710796</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.1</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>1.1342453002929602</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.1</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>5.4550140380859204</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.1</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>4.1836318969726394</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.125</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>1.13985137939452</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.125</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>0.38001708984371874</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.125</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>8.9212005615234382</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.125</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>4.6268768310546786</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.125</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>8.6154876708984371</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.125</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>1.8245407104491989</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.125</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>2.9095092773437186</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.125</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>0.60853271484371874</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.125</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>2.2229324340819998</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.125</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>5.2420410156250004</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.125</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>1.3929763793945198</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.125</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>1.7435348510741988</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.125</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>3.449603271484361</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.125</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>4.0421600341796786</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.125</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1.6667572021484005</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.125</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>2.7856735229491987</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.125</v>
       </c>
@@ -9912,10 +9912,10 @@
         <v>175</v>
       </c>
       <c r="M219">
-        <v>6.6510696411132813</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.6510696411132812</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.125</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>1.2085830688476391</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.125</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>6.0371658325195199</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.125</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>3.411642456054679</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.15</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>6.978761291503881</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.15</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>3.7890640258788806</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.15</v>
       </c>
@@ -10158,10 +10158,10 @@
         <v>40</v>
       </c>
       <c r="M225">
-        <v>3.8092727661132813</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.8092727661132812</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.15</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>2.423643493652321</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.15</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>5.237023925781239</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.15</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>5.7435958862304402</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.15</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>4.1816955566405998</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.15</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>5.7425048828124803</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.15</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>1.8990615844726393</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.15</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>3.0428451538085595</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.15</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>3.721617126464841</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.15</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>1.5284790039062386</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.15</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>8.3503326416015629</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.15</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>0.67998809814451988</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.15</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>1.0480148315429603</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.15</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>3.7227584838867189</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.15</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>1.7285171508788806</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.15</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>5.4397033691405996</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.15</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>5.0189239501952816</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.15</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>8.9079772949218405</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.15</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>1.2617538452148409</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.15</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>3.9943695068359206</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.15</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>6.3109802246093611</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.15</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>1.0906402587890398</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.15</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>8.9210937500000007</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.15</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>4.9228912353515595</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.15</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>3.6158325195312386</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.15</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>1.742756652832</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.15</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>3.4475708007812385</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.1</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>0.44460296630855967</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.1</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>3.0398193359374801</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.1</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>1.2620742797851192</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.1</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>1.7277984619140399</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.1</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>2.0447143554687188</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.1</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>1.7448394775390397</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.1</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>1.6331771850585597</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.1</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>4.0404052734374805</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.1</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>1.8946456909179603</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.1</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>3.4070510864257613</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.1</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>3.0418228149414004</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.1</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>0.67323150634763917</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.1</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>1.5551071166991988</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.1</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>2.0450057983398411</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.1</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>5.3552001953124799</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.1</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>8.3403717041015621</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.1</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>6.6559448242187189</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.1</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>3.3641647338867187</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.1</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>0.80790405273436083</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.1</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>3.4091766357421589</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.125</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>0.60730590820311936</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.125</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>3.4085769653320002</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.125</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>5.4407714843750004</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.125</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>3.2199523925781195</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.125</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>3.1354919433593609</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.125</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>0.517578125</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.125</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>0.74340057373044033</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.125</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>1.3315704345702812</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.125</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>2.7224380493164007</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.125</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>2.0427871704101195</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.125</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>0.92747344970699996</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.125</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>3.9918060302734006</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.125</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>5.0179000854491989</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.125</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>1.7266921997069999</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.125</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>5.1807937622070002</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.125</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>1.7433731079101193</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.125</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>5.2180664062500002</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.125</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>1.1993286132812386</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.125</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>2.5470336914062388</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.125</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>2.0163711547851193</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.125</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>1.9367004394531193</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.125</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>0.64579467773436083</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.125</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>1.1391433715820001</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.125</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>4.0409484863281193</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.125</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>4.9370605468750002</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.125</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>3.3679885864257613</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.125</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>3.5954193115234006</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.125</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>5.9912597656250002</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.125</v>
       </c>
@@ -13236,7 +13236,7 @@
         <v>1.1334808349609204</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.125</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>1.269992065429679</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.125</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>0.98976898193355967</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.125</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>3.7251617431640396</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.125</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>3.3639770507812385</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.125</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>3.3661788940429602</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.125</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>2.4239700317382811</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.125</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>2.5927642822265597</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.15</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>1.1976242065429603</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.15</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>1.2696441650390398</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.15</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>5.7481506347655991</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.15</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>3.8037307739257615</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.15</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>1.1351058959960796</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.15</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>4.1841125488281197</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.15</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>5.24012908935544</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.15</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>1.6325973510741989</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.15</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>5.2374328613281191</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.15</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>4.1856491088867189</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.15</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>5.0130325317382809</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.15</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>2.2336456298828011</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.15</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>2.0166946411132813</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.15</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>5.0120498657226396</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.15</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>3.595599365234361</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.15</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>0.37981872558592045</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.15</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>0.54324645996092047</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.15</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>3.4042404174804402</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.15</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>0.58223724365232099</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.15</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>0.68207550048828125</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.15</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>3.402587890625</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.15</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>6.3148208618164006</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.15</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>1.2609344482421592</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.15</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>6.6557678222655996</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.15</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>4.924501037597639</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.15</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>0.50977478027340051</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.15</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>2.7904937744140397</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.15</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>8.3295989990234371</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.15</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>5.7406127929687187</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.15</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>0.51856689453123861</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.1</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>0.5104721069335596</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.1</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>1.7465530395507614</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.1</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>0.51705474853511935</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.1</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>1.0472015380859205</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.1</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>0.64444580078123859</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.1</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>1.3928955078124801</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.1</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>1.1461532592773209</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.1</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>1.6337112426757614</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.1</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>3.0365219116210795</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.1</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>2.9655410766601191</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.1</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>1.2624603271484005</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.1</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>0.60860137939451986</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.1</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>2.5501022338867188</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.1</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>1.3932678222655994</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.1</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>1.3329330444335596</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.1</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>1.8993820190429602</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.1</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>3.6160369873046792</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.1</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>3.5927185058593607</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.1</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>5.0062652587890399</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.1</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>5.4326522827148409</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.1</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>1.2061828613281194</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.1</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>1.2068771362304402</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.1</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>1.0470397949218408</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.1</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>0.74608612060544033</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.1</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>3.7154830932617187</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.1</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>5.7449310302734009</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.1</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>1.0483840942382812</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.1</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>3.1418685913085596</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.125</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>2.2320114135741989</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.125</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>5.3593444824218412</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.125</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>1.822509765625</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.125</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>2.9589584350585598</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.125</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>0.68195037841796025</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.125</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>1.2628967285155994</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.125</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>2.0215118408202812</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.125</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>1.197569274902321</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.125</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>5.0141525268554403</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.125</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>5.2175048828124799</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.125</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>3.5955703735351192</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.125</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>0.50921478271484089</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.125</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>1.0867553710937188</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.125</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>5.4572570800781195</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.125</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>1.2617355346679602</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.125</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>5.2364257812500004</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.125</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>2.41865997314452</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.125</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>8.3242401123046825</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.125</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>6.9696701049804402</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.125</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>0.64442749023436074</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.15</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>1.553575134277321</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.15</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>0.44480438232419883</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.15</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>0.44462432861328127</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.15</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>3.5946533203124802</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.15</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>5.2290328979491987</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.15</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>5.6725891113281195</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.15</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>0.80641937255855967</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.15</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>0.54473114013671875</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.15</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>6.6552703857421589</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.15</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>3.227375793457</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.15</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>0.68179779052732103</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.15</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>1.3337173461914005</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.15</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>2.2340805053710797</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.15</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>1.2688049316405994</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.15</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>3.81172637939452</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.15</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>1.5547866821288807</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.15</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>0.7452316284179602</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.15</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>6.9714309692382814</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.15</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>3.6152069091796788</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.15</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>8.3489501953124776</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.15</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>1.7301910400390397</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.15</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>6.3536239624023212</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.15</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>5.2168228149414002</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.15</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>2.7224899291991989</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.15</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>0.44499053955076134</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.1</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>0.64554443359371871</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.1</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>1.1394592285155993</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.1</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>1.7283416748046789</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.1</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>1.5519973754882812</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.1</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>4.1824279785155998</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.1</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>5.9957565307617191</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.1</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>1.1483062744140398</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0.1</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>4.9491699218749998</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0.1</v>
       </c>
@@ -18115,7 +18115,7 @@
         <v>1.2603958129882813</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.1</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>3.5917327880859204</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0.1</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>0.58234100341796025</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>0.1</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>1.7287521362304403</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>0.1</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>3.3642181396484006</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>0.1</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>8.9277923583984382</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>0.1</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>1.7464370727538807</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>0.1</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>3.6199920654296789</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>0.1</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>0.58195800781248008</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>0.1</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>1.2632736206054402</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>0.1</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>2.9669418334960795</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>0.1</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>4.9402435302734009</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>0.1</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>5.9879577636718411</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>0.1</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>1.0473541259765597</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>0.1</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>4.9460571289062383</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>0.1</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>8.9308380126952791</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>0.1</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>1.1964630126952813</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>0.1</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>0.98578948974607949</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>0.1</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>5.3599029541015595</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>0.1</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>1.1499084472655994</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>0.1</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>2.4261505126952811</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>0.1</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>1.9356872558593607</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>0.1</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>5.4599288940429602</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>0.125</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>3.3649139404296791</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>0.125</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>4.0388381958007615</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>0.125</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>0.44465637207028125</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>0.125</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>0.74472198486328123</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>0.125</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>3.7847793579101192</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>0.125</v>
       </c>
@@ -19263,7 +19263,7 @@
         <v>3.4484710693359206</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>0.125</v>
       </c>
@@ -19304,7 +19304,7 @@
         <v>1.8982864379882813</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>0.125</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>5.6651809692382811</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>0.125</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>2.5928100585937188</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>0.125</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>1.938218688964841</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>0.125</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>5.7312042236328011</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>0.125</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>2.7823348999023212</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>0.125</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>0.50918579101559946</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>0.125</v>
       </c>
@@ -19591,7 +19591,7 @@
         <v>5.0111648559570003</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>0.125</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>0.50843811035155961</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>0.125</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>3.4033645629882812</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>0.125</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>8.9292358398437219</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>0.125</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>3.4078247070312386</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>0.125</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>2.7192123413085598</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>0.125</v>
       </c>
@@ -19837,7 +19837,7 @@
         <v>3.6168365478515598</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>0.125</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>2.0405944824218407</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>0.125</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>1.7863342285155994</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>0.125</v>
       </c>
@@ -19960,7 +19960,7 @@
         <v>0.74560852050780113</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>0.125</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>0.67278289794919888</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>0.125</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>2.5882873535155992</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>0.125</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>1.1381484985351193</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>0.125</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>0.92666015624999998</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>0.125</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>0.92914886474607949</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>0.125</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>1.5307601928710795</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>0.125</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>1.824055480957</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>0.125</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>3.3704086303710796</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>0.125</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>1.897067260742159</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>0.125</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>0.51031646728511926</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>0.15</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>1.897004699707</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>0.15</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>0.80861206054684087</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>0.15</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>1.6651245117187188</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>0.15</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>5.23757171630856</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>0.15</v>
       </c>
@@ -20572,10 +20572,10 @@
         <v>40</v>
       </c>
       <c r="M479">
-        <v>1.1974563598632813</v>
-      </c>
-    </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1974563598632812</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>0.15</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>2.5458328247069999</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>0.15</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>6.9701156616210795</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>0.15</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>2.7228012084960795</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>0.15</v>
       </c>
@@ -20739,7 +20739,7 @@
         <v>1.6675659179687188</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>0.15</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>3.7209793090819998</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>0.15</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>0.58170013427732103</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>0.15</v>
       </c>
@@ -20859,10 +20859,10 @@
         <v>175</v>
       </c>
       <c r="M486">
-        <v>1.9374465942382813</v>
-      </c>
-    </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9374465942382812</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>0.15</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>1.3335952758788807</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>0.15</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>0.60845947265623868</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>0.15</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>1.3335693359374801</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>0.15</v>
       </c>
@@ -21026,7 +21026,7 @@
         <v>1.3939300537109205</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>0.15</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>0.68177947998044031</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>0.15</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>0.54427795410155966</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>0.15</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>0.44441375732419885</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>0.15</v>
       </c>
@@ -21190,7 +21190,7 @@
         <v>5.2235702514648406</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>0.15</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>2.5492889404296788</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>0.15</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>2.2310546874999999</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>0.15</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>0.58195190429684085</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>0.15</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>0.60858612060544037</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>0.15</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>3.8106353759765597</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>0.15</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v>3.4455169677734006</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>0.15</v>
       </c>
